--- a/Code/frameGen.xlsx
+++ b/Code/frameGen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13365" windowHeight="13350" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13365" windowHeight="13350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4x7_top" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="52">
   <si>
     <t>D</t>
   </si>
@@ -309,231 +309,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <fill>
         <patternFill>
@@ -1571,131 +1347,131 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B2*128+B3*64+B4*32+B5*16+B6*8+B7*4+B8*2+B9,2),",")</f>
+        <f t="shared" ref="B11:I11" si="0">CONCATENATE("0x",DEC2HEX(B2*128+B3*64+B4*32+B5*16+B6*8+B7*4+B8*2+B9,2),",")</f>
         <v>0x7C,</v>
       </c>
       <c r="C11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C2*128+C3*64+C4*32+C5*16+C6*8+C7*4+C8*2+C9,2),",")</f>
+        <f t="shared" si="0"/>
         <v>0xA2,</v>
       </c>
       <c r="D11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D2*128+D3*64+D4*32+D5*16+D6*8+D7*4+D8*2+D9,2),",")</f>
+        <f t="shared" si="0"/>
         <v>0x92,</v>
       </c>
       <c r="E11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E2*128+E3*64+E4*32+E5*16+E6*8+E7*4+E8*2+E9,2),",")</f>
+        <f t="shared" si="0"/>
         <v>0x7C,</v>
       </c>
       <c r="F11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F2*128+F3*64+F4*32+F5*16+F6*8+F7*4+F8*2+F9,2),",")</f>
+        <f t="shared" si="0"/>
         <v>0x00,</v>
       </c>
       <c r="G11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G2*128+G3*64+G4*32+G5*16+G6*8+G7*4+G8*2+G9,2),",")</f>
+        <f t="shared" si="0"/>
         <v>0x42,</v>
       </c>
       <c r="H11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H2*128+H3*64+H4*32+H5*16+H6*8+H7*4+H8*2+H9,2),",")</f>
+        <f t="shared" si="0"/>
         <v>0xFE,</v>
       </c>
       <c r="I11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I2*128+I3*64+I4*32+I5*16+I6*8+I7*4+I8*2+I9,2),",")</f>
+        <f t="shared" si="0"/>
         <v>0x02,</v>
       </c>
       <c r="L11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L2*128+L3*64+L4*32+L5*16+L6*8+L7*4+L8*2+L9,2),",")</f>
+        <f t="shared" ref="L11:S11" si="1">CONCATENATE("0x",DEC2HEX(L2*128+L3*64+L4*32+L5*16+L6*8+L7*4+L8*2+L9,2),",")</f>
         <v>0x0C,</v>
       </c>
       <c r="M11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M2*128+M3*64+M4*32+M5*16+M6*8+M7*4+M8*2+M9,2),",")</f>
+        <f t="shared" si="1"/>
         <v>0x92,</v>
       </c>
       <c r="N11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N2*128+N3*64+N4*32+N5*16+N6*8+N7*4+N8*2+N9,2),",")</f>
+        <f t="shared" si="1"/>
         <v>0x92,</v>
       </c>
       <c r="O11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O2*128+O3*64+O4*32+O5*16+O6*8+O7*4+O8*2+O9,2),",")</f>
+        <f t="shared" si="1"/>
         <v>0x60,</v>
       </c>
       <c r="P11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P2*128+P3*64+P4*32+P5*16+P6*8+P7*4+P8*2+P9,2),",")</f>
+        <f t="shared" si="1"/>
         <v>0x44,</v>
       </c>
       <c r="Q11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q2*128+Q3*64+Q4*32+Q5*16+Q6*8+Q7*4+Q8*2+Q9,2),",")</f>
+        <f t="shared" si="1"/>
         <v>0x92,</v>
       </c>
       <c r="R11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R2*128+R3*64+R4*32+R5*16+R6*8+R7*4+R8*2+R9,2),",")</f>
+        <f t="shared" si="1"/>
         <v>0x92,</v>
       </c>
       <c r="S11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S2*128+S3*64+S4*32+S5*16+S6*8+S7*4+S8*2+S9,2),",")</f>
+        <f t="shared" si="1"/>
         <v>0x6C,</v>
       </c>
       <c r="V11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V2*128+V3*64+V4*32+V5*16+V6*8+V7*4+V8*2+V9,2),",")</f>
+        <f t="shared" ref="V11:AC11" si="2">CONCATENATE("0x",DEC2HEX(V2*128+V3*64+V4*32+V5*16+V6*8+V7*4+V8*2+V9,2),",")</f>
         <v>0x70,</v>
       </c>
       <c r="W11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W2*128+W3*64+W4*32+W5*16+W6*8+W7*4+W8*2+W9,2),",")</f>
+        <f t="shared" si="2"/>
         <v>0x10,</v>
       </c>
       <c r="X11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X2*128+X3*64+X4*32+X5*16+X6*8+X7*4+X8*2+X9,2),",")</f>
+        <f t="shared" si="2"/>
         <v>0x10,</v>
       </c>
       <c r="Y11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y2*128+Y3*64+Y4*32+Y5*16+Y6*8+Y7*4+Y8*2+Y9,2),",")</f>
+        <f t="shared" si="2"/>
         <v>0xFE,</v>
       </c>
       <c r="Z11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z2*128+Z3*64+Z4*32+Z5*16+Z6*8+Z7*4+Z8*2+Z9,2),",")</f>
+        <f t="shared" si="2"/>
         <v>0xF4,</v>
       </c>
       <c r="AA11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA2*128+AA3*64+AA4*32+AA5*16+AA6*8+AA7*4+AA8*2+AA9,2),",")</f>
+        <f t="shared" si="2"/>
         <v>0x92,</v>
       </c>
       <c r="AB11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB2*128+AB3*64+AB4*32+AB5*16+AB6*8+AB7*4+AB8*2+AB9,2),",")</f>
+        <f t="shared" si="2"/>
         <v>0x92,</v>
       </c>
       <c r="AC11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC2*128+AC3*64+AC4*32+AC5*16+AC6*8+AC7*4+AC8*2+AC9,2),",")</f>
+        <f t="shared" si="2"/>
         <v>0x8C,</v>
       </c>
       <c r="AF11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF2*128+AF3*64+AF4*32+AF5*16+AF6*8+AF7*4+AF8*2+AF9,2),",")</f>
+        <f t="shared" ref="AF11:AM11" si="3">CONCATENATE("0x",DEC2HEX(AF2*128+AF3*64+AF4*32+AF5*16+AF6*8+AF7*4+AF8*2+AF9,2),",")</f>
         <v>0x7C,</v>
       </c>
       <c r="AG11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG2*128+AG3*64+AG4*32+AG5*16+AG6*8+AG7*4+AG8*2+AG9,2),",")</f>
+        <f t="shared" si="3"/>
         <v>0x92,</v>
       </c>
       <c r="AH11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH2*128+AH3*64+AH4*32+AH5*16+AH6*8+AH7*4+AH8*2+AH9,2),",")</f>
+        <f t="shared" si="3"/>
         <v>0x92,</v>
       </c>
       <c r="AI11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI2*128+AI3*64+AI4*32+AI5*16+AI6*8+AI7*4+AI8*2+AI9,2),",")</f>
+        <f t="shared" si="3"/>
         <v>0x4C,</v>
       </c>
       <c r="AJ11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ2*128+AJ3*64+AJ4*32+AJ5*16+AJ6*8+AJ7*4+AJ8*2+AJ9,2),",")</f>
+        <f t="shared" si="3"/>
         <v>0x80,</v>
       </c>
       <c r="AK11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK2*128+AK3*64+AK4*32+AK5*16+AK6*8+AK7*4+AK8*2+AK9,2),",")</f>
+        <f t="shared" si="3"/>
         <v>0x8E,</v>
       </c>
       <c r="AL11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL2*128+AL3*64+AL4*32+AL5*16+AL6*8+AL7*4+AL8*2+AL9,2),",")</f>
+        <f t="shared" si="3"/>
         <v>0x90,</v>
       </c>
       <c r="AM11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM2*128+AM3*64+AM4*32+AM5*16+AM6*8+AM7*4+AM8*2+AM9,2),",")</f>
+        <f t="shared" si="3"/>
         <v>0xE0,</v>
       </c>
     </row>
@@ -2248,131 +2024,131 @@
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B15*128+B16*64+B17*32+B18*16+B19*8+B20*4+B21*2+B22,2),",")</f>
+        <f t="shared" ref="B24:I24" si="4">CONCATENATE("0x",DEC2HEX(B15*128+B16*64+B17*32+B18*16+B19*8+B20*4+B21*2+B22,2),",")</f>
         <v>0x6C,</v>
       </c>
       <c r="C24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C15*128+C16*64+C17*32+C18*16+C19*8+C20*4+C21*2+C22,2),",")</f>
+        <f t="shared" si="4"/>
         <v>0x92,</v>
       </c>
       <c r="D24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D15*128+D16*64+D17*32+D18*16+D19*8+D20*4+D21*2+D22,2),",")</f>
+        <f t="shared" si="4"/>
         <v>0x92,</v>
       </c>
       <c r="E24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E15*128+E16*64+E17*32+E18*16+E19*8+E20*4+E21*2+E22,2),",")</f>
+        <f t="shared" si="4"/>
         <v>0x6C,</v>
       </c>
       <c r="F24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F15*128+F16*64+F17*32+F18*16+F19*8+F20*4+F21*2+F22,2),",")</f>
+        <f t="shared" si="4"/>
         <v>0x60,</v>
       </c>
       <c r="G24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G15*128+G16*64+G17*32+G18*16+G19*8+G20*4+G21*2+G22,2),",")</f>
+        <f t="shared" si="4"/>
         <v>0x90,</v>
       </c>
       <c r="H24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H15*128+H16*64+H17*32+H18*16+H19*8+H20*4+H21*2+H22,2),",")</f>
+        <f t="shared" si="4"/>
         <v>0x90,</v>
       </c>
       <c r="I24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I15*128+I16*64+I17*32+I18*16+I19*8+I20*4+I21*2+I22,2),",")</f>
+        <f t="shared" si="4"/>
         <v>0xFE,</v>
       </c>
       <c r="L24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L15*128+L16*64+L17*32+L18*16+L19*8+L20*4+L21*2+L22,2),",")</f>
+        <f t="shared" ref="L24:S24" si="5">CONCATENATE("0x",DEC2HEX(L15*128+L16*64+L17*32+L18*16+L19*8+L20*4+L21*2+L22,2),",")</f>
         <v>0x7E,</v>
       </c>
       <c r="M24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M15*128+M16*64+M17*32+M18*16+M19*8+M20*4+M21*2+M22,2),",")</f>
+        <f t="shared" si="5"/>
         <v>0x90,</v>
       </c>
       <c r="N24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N15*128+N16*64+N17*32+N18*16+N19*8+N20*4+N21*2+N22,2),",")</f>
+        <f t="shared" si="5"/>
         <v>0x90,</v>
       </c>
       <c r="O24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O15*128+O16*64+O17*32+O18*16+O19*8+O20*4+O21*2+O22,2),",")</f>
+        <f t="shared" si="5"/>
         <v>0x7E,</v>
       </c>
       <c r="P24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P15*128+P16*64+P17*32+P18*16+P19*8+P20*4+P21*2+P22,2),",")</f>
+        <f t="shared" si="5"/>
         <v>0x04,</v>
       </c>
       <c r="Q24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q15*128+Q16*64+Q17*32+Q18*16+Q19*8+Q20*4+Q21*2+Q22,2),",")</f>
+        <f t="shared" si="5"/>
         <v>0x2A,</v>
       </c>
       <c r="R24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R15*128+R16*64+R17*32+R18*16+R19*8+R20*4+R21*2+R22,2),",")</f>
+        <f t="shared" si="5"/>
         <v>0x2A,</v>
       </c>
       <c r="S24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S15*128+S16*64+S17*32+S18*16+S19*8+S20*4+S21*2+S22,2),",")</f>
+        <f t="shared" si="5"/>
         <v>0x1E,</v>
       </c>
       <c r="V24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V15*128+V16*64+V17*32+V18*16+V19*8+V20*4+V21*2+V22,2),",")</f>
+        <f t="shared" ref="V24:AC24" si="6">CONCATENATE("0x",DEC2HEX(V15*128+V16*64+V17*32+V18*16+V19*8+V20*4+V21*2+V22,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="W24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W15*128+W16*64+W17*32+W18*16+W19*8+W20*4+W21*2+W22,2),",")</f>
+        <f t="shared" si="6"/>
         <v>0x92,</v>
       </c>
       <c r="X24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X15*128+X16*64+X17*32+X18*16+X19*8+X20*4+X21*2+X22,2),",")</f>
+        <f t="shared" si="6"/>
         <v>0x92,</v>
       </c>
       <c r="Y24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y15*128+Y16*64+Y17*32+Y18*16+Y19*8+Y20*4+Y21*2+Y22,2),",")</f>
+        <f t="shared" si="6"/>
         <v>0x6C,</v>
       </c>
       <c r="Z24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z15*128+Z16*64+Z17*32+Z18*16+Z19*8+Z20*4+Z21*2+Z22,2),",")</f>
+        <f t="shared" si="6"/>
         <v>0xFE,</v>
       </c>
       <c r="AA24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA15*128+AA16*64+AA17*32+AA18*16+AA19*8+AA20*4+AA21*2+AA22,2),",")</f>
+        <f t="shared" si="6"/>
         <v>0x12,</v>
       </c>
       <c r="AB24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB15*128+AB16*64+AB17*32+AB18*16+AB19*8+AB20*4+AB21*2+AB22,2),",")</f>
+        <f t="shared" si="6"/>
         <v>0x12,</v>
       </c>
       <c r="AC24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC15*128+AC16*64+AC17*32+AC18*16+AC19*8+AC20*4+AC21*2+AC22,2),",")</f>
+        <f t="shared" si="6"/>
         <v>0x0C,</v>
       </c>
       <c r="AF24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF15*128+AF16*64+AF17*32+AF18*16+AF19*8+AF20*4+AF21*2+AF22,2),",")</f>
+        <f t="shared" ref="AF24:AM24" si="7">CONCATENATE("0x",DEC2HEX(AF15*128+AF16*64+AF17*32+AF18*16+AF19*8+AF20*4+AF21*2+AF22,2),",")</f>
         <v>0x7C,</v>
       </c>
       <c r="AG24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG15*128+AG16*64+AG17*32+AG18*16+AG19*8+AG20*4+AG21*2+AG22,2),",")</f>
+        <f t="shared" si="7"/>
         <v>0x82,</v>
       </c>
       <c r="AH24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH15*128+AH16*64+AH17*32+AH18*16+AH19*8+AH20*4+AH21*2+AH22,2),",")</f>
+        <f t="shared" si="7"/>
         <v>0x82,</v>
       </c>
       <c r="AI24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI15*128+AI16*64+AI17*32+AI18*16+AI19*8+AI20*4+AI21*2+AI22,2),",")</f>
+        <f t="shared" si="7"/>
         <v>0x44,</v>
       </c>
       <c r="AJ24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ15*128+AJ16*64+AJ17*32+AJ18*16+AJ19*8+AJ20*4+AJ21*2+AJ22,2),",")</f>
+        <f t="shared" si="7"/>
         <v>0x1C,</v>
       </c>
       <c r="AK24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK15*128+AK16*64+AK17*32+AK18*16+AK19*8+AK20*4+AK21*2+AK22,2),",")</f>
+        <f t="shared" si="7"/>
         <v>0x22,</v>
       </c>
       <c r="AL24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL15*128+AL16*64+AL17*32+AL18*16+AL19*8+AL20*4+AL21*2+AL22,2),",")</f>
+        <f t="shared" si="7"/>
         <v>0x22,</v>
       </c>
       <c r="AM24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM15*128+AM16*64+AM17*32+AM18*16+AM19*8+AM20*4+AM21*2+AM22,2),",")</f>
+        <f t="shared" si="7"/>
         <v>0x14,</v>
       </c>
     </row>
@@ -2919,131 +2695,131 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B28*128+B29*64+B30*32+B31*16+B32*8+B33*4+B34*2+B35,2),",")</f>
+        <f t="shared" ref="B37:I37" si="8">CONCATENATE("0x",DEC2HEX(B28*128+B29*64+B30*32+B31*16+B32*8+B33*4+B34*2+B35,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="C37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C28*128+C29*64+C30*32+C31*16+C32*8+C33*4+C34*2+C35,2),",")</f>
+        <f t="shared" si="8"/>
         <v>0x82,</v>
       </c>
       <c r="D37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D28*128+D29*64+D30*32+D31*16+D32*8+D33*4+D34*2+D35,2),",")</f>
+        <f t="shared" si="8"/>
         <v>0x82,</v>
       </c>
       <c r="E37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E28*128+E29*64+E30*32+E31*16+E32*8+E33*4+E34*2+E35,2),",")</f>
+        <f t="shared" si="8"/>
         <v>0x7C,</v>
       </c>
       <c r="F37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F28*128+F29*64+F30*32+F31*16+F32*8+F33*4+F34*2+F35,2),",")</f>
+        <f t="shared" si="8"/>
         <v>0x0C,</v>
       </c>
       <c r="G37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G28*128+G29*64+G30*32+G31*16+G32*8+G33*4+G34*2+G35,2),",")</f>
+        <f t="shared" si="8"/>
         <v>0x12,</v>
       </c>
       <c r="H37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H28*128+H29*64+H30*32+H31*16+H32*8+H33*4+H34*2+H35,2),",")</f>
+        <f t="shared" si="8"/>
         <v>0x12,</v>
       </c>
       <c r="I37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I28*128+I29*64+I30*32+I31*16+I32*8+I33*4+I34*2+I35,2),",")</f>
+        <f t="shared" si="8"/>
         <v>0xFE,</v>
       </c>
       <c r="L37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L28*128+L29*64+L30*32+L31*16+L32*8+L33*4+L34*2+L35,2),",")</f>
+        <f t="shared" ref="L37:S37" si="9">CONCATENATE("0x",DEC2HEX(L28*128+L29*64+L30*32+L31*16+L32*8+L33*4+L34*2+L35,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="M37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M28*128+M29*64+M30*32+M31*16+M32*8+M33*4+M34*2+M35,2),",")</f>
+        <f t="shared" si="9"/>
         <v>0x92,</v>
       </c>
       <c r="N37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N28*128+N29*64+N30*32+N31*16+N32*8+N33*4+N34*2+N35,2),",")</f>
+        <f t="shared" si="9"/>
         <v>0x92,</v>
       </c>
       <c r="O37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O28*128+O29*64+O30*32+O31*16+O32*8+O33*4+O34*2+O35,2),",")</f>
+        <f t="shared" si="9"/>
         <v>0x82,</v>
       </c>
       <c r="P37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P28*128+P29*64+P30*32+P31*16+P32*8+P33*4+P34*2+P35,2),",")</f>
+        <f t="shared" si="9"/>
         <v>0x1C,</v>
       </c>
       <c r="Q37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q28*128+Q29*64+Q30*32+Q31*16+Q32*8+Q33*4+Q34*2+Q35,2),",")</f>
+        <f t="shared" si="9"/>
         <v>0x2A,</v>
       </c>
       <c r="R37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R28*128+R29*64+R30*32+R31*16+R32*8+R33*4+R34*2+R35,2),",")</f>
+        <f t="shared" si="9"/>
         <v>0x2A,</v>
       </c>
       <c r="S37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S28*128+S29*64+S30*32+S31*16+S32*8+S33*4+S34*2+S35,2),",")</f>
+        <f t="shared" si="9"/>
         <v>0x18,</v>
       </c>
       <c r="V37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V28*128+V29*64+V30*32+V31*16+V32*8+V33*4+V34*2+V35,2),",")</f>
+        <f t="shared" ref="V37:AC37" si="10">CONCATENATE("0x",DEC2HEX(V28*128+V29*64+V30*32+V31*16+V32*8+V33*4+V34*2+V35,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="W37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W28*128+W29*64+W30*32+W31*16+W32*8+W33*4+W34*2+W35,2),",")</f>
+        <f t="shared" si="10"/>
         <v>0x90,</v>
       </c>
       <c r="X37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X28*128+X29*64+X30*32+X31*16+X32*8+X33*4+X34*2+X35,2),",")</f>
+        <f t="shared" si="10"/>
         <v>0x90,</v>
       </c>
       <c r="Y37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y28*128+Y29*64+Y30*32+Y31*16+Y32*8+Y33*4+Y34*2+Y35,2),",")</f>
+        <f t="shared" si="10"/>
         <v>0x80,</v>
       </c>
       <c r="Z37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z28*128+Z29*64+Z30*32+Z31*16+Z32*8+Z33*4+Z34*2+Z35,2),",")</f>
+        <f t="shared" si="10"/>
         <v>0x00,</v>
       </c>
       <c r="AA37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA28*128+AA29*64+AA30*32+AA31*16+AA32*8+AA33*4+AA34*2+AA35,2),",")</f>
+        <f t="shared" si="10"/>
         <v>0x7E,</v>
       </c>
       <c r="AB37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB28*128+AB29*64+AB30*32+AB31*16+AB32*8+AB33*4+AB34*2+AB35,2),",")</f>
+        <f t="shared" si="10"/>
         <v>0x90,</v>
       </c>
       <c r="AC37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC28*128+AC29*64+AC30*32+AC31*16+AC32*8+AC33*4+AC34*2+AC35,2),",")</f>
+        <f t="shared" si="10"/>
         <v>0x40,</v>
       </c>
       <c r="AF37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF28*128+AF29*64+AF30*32+AF31*16+AF32*8+AF33*4+AF34*2+AF35,2),",")</f>
+        <f t="shared" ref="AF37:AM37" si="11">CONCATENATE("0x",DEC2HEX(AF28*128+AF29*64+AF30*32+AF31*16+AF32*8+AF33*4+AF34*2+AF35,2),",")</f>
         <v>0x7C,</v>
       </c>
       <c r="AG37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG28*128+AG29*64+AG30*32+AG31*16+AG32*8+AG33*4+AG34*2+AG35,2),",")</f>
+        <f t="shared" si="11"/>
         <v>0x82,</v>
       </c>
       <c r="AH37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH28*128+AH29*64+AH30*32+AH31*16+AH32*8+AH33*4+AH34*2+AH35,2),",")</f>
+        <f t="shared" si="11"/>
         <v>0x8A,</v>
       </c>
       <c r="AI37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI28*128+AI29*64+AI30*32+AI31*16+AI32*8+AI33*4+AI34*2+AI35,2),",")</f>
+        <f t="shared" si="11"/>
         <v>0x4C,</v>
       </c>
       <c r="AJ37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ28*128+AJ29*64+AJ30*32+AJ31*16+AJ32*8+AJ33*4+AJ34*2+AJ35,2),",")</f>
+        <f t="shared" si="11"/>
         <v>0x18,</v>
       </c>
       <c r="AK37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK28*128+AK29*64+AK30*32+AK31*16+AK32*8+AK33*4+AK34*2+AK35,2),",")</f>
+        <f t="shared" si="11"/>
         <v>0x25,</v>
       </c>
       <c r="AL37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL28*128+AL29*64+AL30*32+AL31*16+AL32*8+AL33*4+AL34*2+AL35,2),",")</f>
+        <f t="shared" si="11"/>
         <v>0x25,</v>
       </c>
       <c r="AM37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM28*128+AM29*64+AM30*32+AM31*16+AM32*8+AM33*4+AM34*2+AM35,2),",")</f>
+        <f t="shared" si="11"/>
         <v>0x1E,</v>
       </c>
     </row>
@@ -3558,131 +3334,131 @@
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B41*128+B42*64+B43*32+B44*16+B45*8+B46*4+B47*2+B48,2),",")</f>
+        <f t="shared" ref="B50:I50" si="12">CONCATENATE("0x",DEC2HEX(B41*128+B42*64+B43*32+B44*16+B45*8+B46*4+B47*2+B48,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="C50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C41*128+C42*64+C43*32+C44*16+C45*8+C46*4+C47*2+C48,2),",")</f>
+        <f t="shared" si="12"/>
         <v>0x10,</v>
       </c>
       <c r="D50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D41*128+D42*64+D43*32+D44*16+D45*8+D46*4+D47*2+D48,2),",")</f>
+        <f t="shared" si="12"/>
         <v>0x10,</v>
       </c>
       <c r="E50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E41*128+E42*64+E43*32+E44*16+E45*8+E46*4+E47*2+E48,2),",")</f>
+        <f t="shared" si="12"/>
         <v>0xFE,</v>
       </c>
       <c r="F50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F41*128+F42*64+F43*32+F44*16+F45*8+F46*4+F47*2+F48,2),",")</f>
+        <f t="shared" si="12"/>
         <v>0xFE,</v>
       </c>
       <c r="G50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G41*128+G42*64+G43*32+G44*16+G45*8+G46*4+G47*2+G48,2),",")</f>
+        <f t="shared" si="12"/>
         <v>0x10,</v>
       </c>
       <c r="H50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H41*128+H42*64+H43*32+H44*16+H45*8+H46*4+H47*2+H48,2),",")</f>
+        <f t="shared" si="12"/>
         <v>0x10,</v>
       </c>
       <c r="I50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I41*128+I42*64+I43*32+I44*16+I45*8+I46*4+I47*2+I48,2),",")</f>
+        <f t="shared" si="12"/>
         <v>0x0E,</v>
       </c>
       <c r="L50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L41*128+L42*64+L43*32+L44*16+L45*8+L46*4+L47*2+L48,2),",")</f>
+        <f t="shared" ref="L50:S50" si="13">CONCATENATE("0x",DEC2HEX(L41*128+L42*64+L43*32+L44*16+L45*8+L46*4+L47*2+L48,2),",")</f>
         <v>0x00,</v>
       </c>
       <c r="M50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M41*128+M42*64+M43*32+M44*16+M45*8+M46*4+M47*2+M48,2),",")</f>
+        <f t="shared" si="13"/>
         <v>0x82,</v>
       </c>
       <c r="N50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N41*128+N42*64+N43*32+N44*16+N45*8+N46*4+N47*2+N48,2),",")</f>
+        <f t="shared" si="13"/>
         <v>0xFE,</v>
       </c>
       <c r="O50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O41*128+O42*64+O43*32+O44*16+O45*8+O46*4+O47*2+O48,2),",")</f>
+        <f t="shared" si="13"/>
         <v>0x82,</v>
       </c>
       <c r="P50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P41*128+P42*64+P43*32+P44*16+P45*8+P46*4+P47*2+P48,2),",")</f>
+        <f t="shared" si="13"/>
         <v>0x00,</v>
       </c>
       <c r="Q50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q41*128+Q42*64+Q43*32+Q44*16+Q45*8+Q46*4+Q47*2+Q48,2),",")</f>
+        <f t="shared" si="13"/>
         <v>0x00,</v>
       </c>
       <c r="R50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R41*128+R42*64+R43*32+R44*16+R45*8+R46*4+R47*2+R48,2),",")</f>
+        <f t="shared" si="13"/>
         <v>0x2E,</v>
       </c>
       <c r="S50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S41*128+S42*64+S43*32+S44*16+S45*8+S46*4+S47*2+S48,2),",")</f>
+        <f t="shared" si="13"/>
         <v>0x00,</v>
       </c>
       <c r="V50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V41*128+V42*64+V43*32+V44*16+V45*8+V46*4+V47*2+V48,2),",")</f>
+        <f t="shared" ref="V50:AC50" si="14">CONCATENATE("0x",DEC2HEX(V41*128+V42*64+V43*32+V44*16+V45*8+V46*4+V47*2+V48,2),",")</f>
         <v>0x04,</v>
       </c>
       <c r="W50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W41*128+W42*64+W43*32+W44*16+W45*8+W46*4+W47*2+W48,2),",")</f>
+        <f t="shared" si="14"/>
         <v>0x02,</v>
       </c>
       <c r="X50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X41*128+X42*64+X43*32+X44*16+X45*8+X46*4+X47*2+X48,2),",")</f>
+        <f t="shared" si="14"/>
         <v>0x82,</v>
       </c>
       <c r="Y50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y41*128+Y42*64+Y43*32+Y44*16+Y45*8+Y46*4+Y47*2+Y48,2),",")</f>
+        <f t="shared" si="14"/>
         <v>0xFC,</v>
       </c>
       <c r="Z50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z41*128+Z42*64+Z43*32+Z44*16+Z45*8+Z46*4+Z47*2+Z48,2),",")</f>
+        <f t="shared" si="14"/>
         <v>0x02,</v>
       </c>
       <c r="AA50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA41*128+AA42*64+AA43*32+AA44*16+AA45*8+AA46*4+AA47*2+AA48,2),",")</f>
+        <f t="shared" si="14"/>
         <v>0x01,</v>
       </c>
       <c r="AB50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB41*128+AB42*64+AB43*32+AB44*16+AB45*8+AB46*4+AB47*2+AB48,2),",")</f>
+        <f t="shared" si="14"/>
         <v>0x2E,</v>
       </c>
       <c r="AC50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC41*128+AC42*64+AC43*32+AC44*16+AC45*8+AC46*4+AC47*2+AC48,2),",")</f>
+        <f t="shared" si="14"/>
         <v>0x00,</v>
       </c>
       <c r="AF50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF41*128+AF42*64+AF43*32+AF44*16+AF45*8+AF46*4+AF47*2+AF48,2),",")</f>
+        <f t="shared" ref="AF50:AM50" si="15">CONCATENATE("0x",DEC2HEX(AF41*128+AF42*64+AF43*32+AF44*16+AF45*8+AF46*4+AF47*2+AF48,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="AG50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG41*128+AG42*64+AG43*32+AG44*16+AG45*8+AG46*4+AG47*2+AG48,2),",")</f>
+        <f t="shared" si="15"/>
         <v>0x10,</v>
       </c>
       <c r="AH50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH41*128+AH42*64+AH43*32+AH44*16+AH45*8+AH46*4+AH47*2+AH48,2),",")</f>
+        <f t="shared" si="15"/>
         <v>0x28,</v>
       </c>
       <c r="AI50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI41*128+AI42*64+AI43*32+AI44*16+AI45*8+AI46*4+AI47*2+AI48,2),",")</f>
+        <f t="shared" si="15"/>
         <v>0xC6,</v>
       </c>
       <c r="AJ50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ41*128+AJ42*64+AJ43*32+AJ44*16+AJ45*8+AJ46*4+AJ47*2+AJ48,2),",")</f>
+        <f t="shared" si="15"/>
         <v>0xFE,</v>
       </c>
       <c r="AK50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK41*128+AK42*64+AK43*32+AK44*16+AK45*8+AK46*4+AK47*2+AK48,2),",")</f>
+        <f t="shared" si="15"/>
         <v>0x08,</v>
       </c>
       <c r="AL50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL41*128+AL42*64+AL43*32+AL44*16+AL45*8+AL46*4+AL47*2+AL48,2),",")</f>
+        <f t="shared" si="15"/>
         <v>0x14,</v>
       </c>
       <c r="AM50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM41*128+AM42*64+AM43*32+AM44*16+AM45*8+AM46*4+AM47*2+AM48,2),",")</f>
+        <f t="shared" si="15"/>
         <v>0x22,</v>
       </c>
     </row>
@@ -4219,131 +3995,131 @@
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B54*128+B55*64+B56*32+B57*16+B58*8+B59*4+B60*2+B61,2),",")</f>
+        <f t="shared" ref="B63:I63" si="16">CONCATENATE("0x",DEC2HEX(B54*128+B55*64+B56*32+B57*16+B58*8+B59*4+B60*2+B61,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="C63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C54*128+C55*64+C56*32+C57*16+C58*8+C59*4+C60*2+C61,2),",")</f>
+        <f t="shared" si="16"/>
         <v>0x02,</v>
       </c>
       <c r="D63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D54*128+D55*64+D56*32+D57*16+D58*8+D59*4+D60*2+D61,2),",")</f>
+        <f t="shared" si="16"/>
         <v>0x02,</v>
       </c>
       <c r="E63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E54*128+E55*64+E56*32+E57*16+E58*8+E59*4+E60*2+E61,2),",")</f>
+        <f t="shared" si="16"/>
         <v>0x02,</v>
       </c>
       <c r="F63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F54*128+F55*64+F56*32+F57*16+F58*8+F59*4+F60*2+F61,2),",")</f>
+        <f t="shared" si="16"/>
         <v>0x00,</v>
       </c>
       <c r="G63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G54*128+G55*64+G56*32+G57*16+G58*8+G59*4+G60*2+G61,2),",")</f>
+        <f t="shared" si="16"/>
         <v>0x00,</v>
       </c>
       <c r="H63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H54*128+H55*64+H56*32+H57*16+H58*8+H59*4+H60*2+H61,2),",")</f>
+        <f t="shared" si="16"/>
         <v>0xFE,</v>
       </c>
       <c r="I63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I54*128+I55*64+I56*32+I57*16+I58*8+I59*4+I60*2+I61,2),",")</f>
+        <f t="shared" si="16"/>
         <v>0x00,</v>
       </c>
       <c r="L63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L54*128+L55*64+L56*32+L57*16+L58*8+L59*4+L60*2+L61,2),",")</f>
+        <f t="shared" ref="L63:S63" si="17">CONCATENATE("0x",DEC2HEX(L54*128+L55*64+L56*32+L57*16+L58*8+L59*4+L60*2+L61,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="M63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M54*128+M55*64+M56*32+M57*16+M58*8+M59*4+M60*2+M61,2),",")</f>
+        <f t="shared" si="17"/>
         <v>0x60,</v>
       </c>
       <c r="N63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N54*128+N55*64+N56*32+N57*16+N58*8+N59*4+N60*2+N61,2),",")</f>
+        <f t="shared" si="17"/>
         <v>0x60,</v>
       </c>
       <c r="O63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O54*128+O55*64+O56*32+O57*16+O58*8+O59*4+O60*2+O61,2),",")</f>
+        <f t="shared" si="17"/>
         <v>0xFE,</v>
       </c>
       <c r="P63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P54*128+P55*64+P56*32+P57*16+P58*8+P59*4+P60*2+P61,2),",")</f>
+        <f t="shared" si="17"/>
         <v>0x1E,</v>
       </c>
       <c r="Q63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q54*128+Q55*64+Q56*32+Q57*16+Q58*8+Q59*4+Q60*2+Q61,2),",")</f>
+        <f t="shared" si="17"/>
         <v>0x18,</v>
       </c>
       <c r="R63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R54*128+R55*64+R56*32+R57*16+R58*8+R59*4+R60*2+R61,2),",")</f>
+        <f t="shared" si="17"/>
         <v>0x18,</v>
       </c>
       <c r="S63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S54*128+S55*64+S56*32+S57*16+S58*8+S59*4+S60*2+S61,2),",")</f>
+        <f t="shared" si="17"/>
         <v>0x1E,</v>
       </c>
       <c r="V63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V54*128+V55*64+V56*32+V57*16+V58*8+V59*4+V60*2+V61,2),",")</f>
+        <f t="shared" ref="V63:AC63" si="18">CONCATENATE("0x",DEC2HEX(V54*128+V55*64+V56*32+V57*16+V58*8+V59*4+V60*2+V61,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="W63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W54*128+W55*64+W56*32+W57*16+W58*8+W59*4+W60*2+W61,2),",")</f>
+        <f t="shared" si="18"/>
         <v>0x60,</v>
       </c>
       <c r="X63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X54*128+X55*64+X56*32+X57*16+X58*8+X59*4+X60*2+X61,2),",")</f>
+        <f t="shared" si="18"/>
         <v>0x18,</v>
       </c>
       <c r="Y63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y54*128+Y55*64+Y56*32+Y57*16+Y58*8+Y59*4+Y60*2+Y61,2),",")</f>
+        <f t="shared" si="18"/>
         <v>0xFE,</v>
       </c>
       <c r="Z63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z54*128+Z55*64+Z56*32+Z57*16+Z58*8+Z59*4+Z60*2+Z61,2),",")</f>
+        <f t="shared" si="18"/>
         <v>0x1E,</v>
       </c>
       <c r="AA63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA54*128+AA55*64+AA56*32+AA57*16+AA58*8+AA59*4+AA60*2+AA61,2),",")</f>
+        <f t="shared" si="18"/>
         <v>0x10,</v>
       </c>
       <c r="AB63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB54*128+AB55*64+AB56*32+AB57*16+AB58*8+AB59*4+AB60*2+AB61,2),",")</f>
+        <f t="shared" si="18"/>
         <v>0x10,</v>
       </c>
       <c r="AC63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC54*128+AC55*64+AC56*32+AC57*16+AC58*8+AC59*4+AC60*2+AC61,2),",")</f>
+        <f t="shared" si="18"/>
         <v>0x0E,</v>
       </c>
       <c r="AF63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF54*128+AF55*64+AF56*32+AF57*16+AF58*8+AF59*4+AF60*2+AF61,2),",")</f>
+        <f t="shared" ref="AF63:AM63" si="19">CONCATENATE("0x",DEC2HEX(AF54*128+AF55*64+AF56*32+AF57*16+AF58*8+AF59*4+AF60*2+AF61,2),",")</f>
         <v>0x7C,</v>
       </c>
       <c r="AG63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG54*128+AG55*64+AG56*32+AG57*16+AG58*8+AG59*4+AG60*2+AG61,2),",")</f>
+        <f t="shared" si="19"/>
         <v>0x82,</v>
       </c>
       <c r="AH63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH54*128+AH55*64+AH56*32+AH57*16+AH58*8+AH59*4+AH60*2+AH61,2),",")</f>
+        <f t="shared" si="19"/>
         <v>0x82,</v>
       </c>
       <c r="AI63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI54*128+AI55*64+AI56*32+AI57*16+AI58*8+AI59*4+AI60*2+AI61,2),",")</f>
+        <f t="shared" si="19"/>
         <v>0x7C,</v>
       </c>
       <c r="AJ63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ54*128+AJ55*64+AJ56*32+AJ57*16+AJ58*8+AJ59*4+AJ60*2+AJ61,2),",")</f>
+        <f t="shared" si="19"/>
         <v>0x0C,</v>
       </c>
       <c r="AK63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK54*128+AK55*64+AK56*32+AK57*16+AK58*8+AK59*4+AK60*2+AK61,2),",")</f>
+        <f t="shared" si="19"/>
         <v>0x12,</v>
       </c>
       <c r="AL63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL54*128+AL55*64+AL56*32+AL57*16+AL58*8+AL59*4+AL60*2+AL61,2),",")</f>
+        <f t="shared" si="19"/>
         <v>0x12,</v>
       </c>
       <c r="AM63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM54*128+AM55*64+AM56*32+AM57*16+AM58*8+AM59*4+AM60*2+AM61,2),",")</f>
+        <f t="shared" si="19"/>
         <v>0x0C,</v>
       </c>
     </row>
@@ -4876,131 +4652,131 @@
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B67*128+B68*64+B69*32+B70*16+B71*8+B72*4+B73*2+B74,2),",")</f>
+        <f t="shared" ref="B76:I76" si="20">CONCATENATE("0x",DEC2HEX(B67*128+B68*64+B69*32+B70*16+B71*8+B72*4+B73*2+B74,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="C76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C67*128+C68*64+C69*32+C70*16+C71*8+C72*4+C73*2+C74,2),",")</f>
+        <f t="shared" si="20"/>
         <v>0x90,</v>
       </c>
       <c r="D76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D67*128+D68*64+D69*32+D70*16+D71*8+D72*4+D73*2+D74,2),",")</f>
+        <f t="shared" si="20"/>
         <v>0x90,</v>
       </c>
       <c r="E76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E67*128+E68*64+E69*32+E70*16+E71*8+E72*4+E73*2+E74,2),",")</f>
+        <f t="shared" si="20"/>
         <v>0x60,</v>
       </c>
       <c r="F76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F67*128+F68*64+F69*32+F70*16+F71*8+F72*4+F73*2+F74,2),",")</f>
+        <f t="shared" si="20"/>
         <v>0x1F,</v>
       </c>
       <c r="G76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G67*128+G68*64+G69*32+G70*16+G71*8+G72*4+G73*2+G74,2),",")</f>
+        <f t="shared" si="20"/>
         <v>0x12,</v>
       </c>
       <c r="H76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H67*128+H68*64+H69*32+H70*16+H71*8+H72*4+H73*2+H74,2),",")</f>
+        <f t="shared" si="20"/>
         <v>0x12,</v>
       </c>
       <c r="I76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I67*128+I68*64+I69*32+I70*16+I71*8+I72*4+I73*2+I74,2),",")</f>
+        <f t="shared" si="20"/>
         <v>0x0C,</v>
       </c>
       <c r="L76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L67*128+L68*64+L69*32+L70*16+L71*8+L72*4+L73*2+L74,2),",")</f>
+        <f t="shared" ref="L76:S76" si="21">CONCATENATE("0x",DEC2HEX(L67*128+L68*64+L69*32+L70*16+L71*8+L72*4+L73*2+L74,2),",")</f>
         <v>0x7C,</v>
       </c>
       <c r="M76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M67*128+M68*64+M69*32+M70*16+M71*8+M72*4+M73*2+M74,2),",")</f>
+        <f t="shared" si="21"/>
         <v>0x82,</v>
       </c>
       <c r="N76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N67*128+N68*64+N69*32+N70*16+N71*8+N72*4+N73*2+N74,2),",")</f>
+        <f t="shared" si="21"/>
         <v>0x86,</v>
       </c>
       <c r="O76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O67*128+O68*64+O69*32+O70*16+O71*8+O72*4+O73*2+O74,2),",")</f>
+        <f t="shared" si="21"/>
         <v>0x7E,</v>
       </c>
       <c r="P76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P67*128+P68*64+P69*32+P70*16+P71*8+P72*4+P73*2+P74,2),",")</f>
+        <f t="shared" si="21"/>
         <v>0x0C,</v>
       </c>
       <c r="Q76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q67*128+Q68*64+Q69*32+Q70*16+Q71*8+Q72*4+Q73*2+Q74,2),",")</f>
+        <f t="shared" si="21"/>
         <v>0x12,</v>
       </c>
       <c r="R76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R67*128+R68*64+R69*32+R70*16+R71*8+R72*4+R73*2+R74,2),",")</f>
+        <f t="shared" si="21"/>
         <v>0x12,</v>
       </c>
       <c r="S76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S67*128+S68*64+S69*32+S70*16+S71*8+S72*4+S73*2+S74,2),",")</f>
+        <f t="shared" si="21"/>
         <v>0x1F,</v>
       </c>
       <c r="V76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V67*128+V68*64+V69*32+V70*16+V71*8+V72*4+V73*2+V74,2),",")</f>
+        <f t="shared" ref="V76:AC76" si="22">CONCATENATE("0x",DEC2HEX(V67*128+V68*64+V69*32+V70*16+V71*8+V72*4+V73*2+V74,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="W76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W67*128+W68*64+W69*32+W70*16+W71*8+W72*4+W73*2+W74,2),",")</f>
+        <f t="shared" si="22"/>
         <v>0x90,</v>
       </c>
       <c r="X76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X67*128+X68*64+X69*32+X70*16+X71*8+X72*4+X73*2+X74,2),",")</f>
+        <f t="shared" si="22"/>
         <v>0x90,</v>
       </c>
       <c r="Y76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y67*128+Y68*64+Y69*32+Y70*16+Y71*8+Y72*4+Y73*2+Y74,2),",")</f>
+        <f t="shared" si="22"/>
         <v>0x6E,</v>
       </c>
       <c r="Z76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z67*128+Z68*64+Z69*32+Z70*16+Z71*8+Z72*4+Z73*2+Z74,2),",")</f>
+        <f t="shared" si="22"/>
         <v>0x1E,</v>
       </c>
       <c r="AA76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA67*128+AA68*64+AA69*32+AA70*16+AA71*8+AA72*4+AA73*2+AA74,2),",")</f>
+        <f t="shared" si="22"/>
         <v>0x08,</v>
       </c>
       <c r="AB76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB67*128+AB68*64+AB69*32+AB70*16+AB71*8+AB72*4+AB73*2+AB74,2),",")</f>
+        <f t="shared" si="22"/>
         <v>0x10,</v>
       </c>
       <c r="AC76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC67*128+AC68*64+AC69*32+AC70*16+AC71*8+AC72*4+AC73*2+AC74,2),",")</f>
+        <f t="shared" si="22"/>
         <v>0x10,</v>
       </c>
       <c r="AF76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF67*128+AF68*64+AF69*32+AF70*16+AF71*8+AF72*4+AF73*2+AF74,2),",")</f>
+        <f t="shared" ref="AF76:AM76" si="23">CONCATENATE("0x",DEC2HEX(AF67*128+AF68*64+AF69*32+AF70*16+AF71*8+AF72*4+AF73*2+AF74,2),",")</f>
         <v>0x64,</v>
       </c>
       <c r="AG76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG67*128+AG68*64+AG69*32+AG70*16+AG71*8+AG72*4+AG73*2+AG74,2),",")</f>
+        <f t="shared" si="23"/>
         <v>0x92,</v>
       </c>
       <c r="AH76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH67*128+AH68*64+AH69*32+AH70*16+AH71*8+AH72*4+AH73*2+AH74,2),",")</f>
+        <f t="shared" si="23"/>
         <v>0x92,</v>
       </c>
       <c r="AI76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI67*128+AI68*64+AI69*32+AI70*16+AI71*8+AI72*4+AI73*2+AI74,2),",")</f>
+        <f t="shared" si="23"/>
         <v>0x4C,</v>
       </c>
       <c r="AJ76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ67*128+AJ68*64+AJ69*32+AJ70*16+AJ71*8+AJ72*4+AJ73*2+AJ74,2),",")</f>
+        <f t="shared" si="23"/>
         <v>0x10,</v>
       </c>
       <c r="AK76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK67*128+AK68*64+AK69*32+AK70*16+AK71*8+AK72*4+AK73*2+AK74,2),",")</f>
+        <f t="shared" si="23"/>
         <v>0x2A,</v>
       </c>
       <c r="AL76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL67*128+AL68*64+AL69*32+AL70*16+AL71*8+AL72*4+AL73*2+AL74,2),",")</f>
+        <f t="shared" si="23"/>
         <v>0x2A,</v>
       </c>
       <c r="AM76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM67*128+AM68*64+AM69*32+AM70*16+AM71*8+AM72*4+AM73*2+AM74,2),",")</f>
+        <f t="shared" si="23"/>
         <v>0x04,</v>
       </c>
     </row>
@@ -5527,131 +5303,131 @@
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B80*128+B81*64+B82*32+B83*16+B84*8+B85*4+B86*2+B87,2),",")</f>
+        <f t="shared" ref="B89:I89" si="24">CONCATENATE("0x",DEC2HEX(B80*128+B81*64+B82*32+B83*16+B84*8+B85*4+B86*2+B87,2),",")</f>
         <v>0x80,</v>
       </c>
       <c r="C89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C80*128+C81*64+C82*32+C83*16+C84*8+C85*4+C86*2+C87,2),",")</f>
+        <f t="shared" si="24"/>
         <v>0x80,</v>
       </c>
       <c r="D89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D80*128+D81*64+D82*32+D83*16+D84*8+D85*4+D86*2+D87,2),",")</f>
+        <f t="shared" si="24"/>
         <v>0xFE,</v>
       </c>
       <c r="E89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E80*128+E81*64+E82*32+E83*16+E84*8+E85*4+E86*2+E87,2),",")</f>
+        <f t="shared" si="24"/>
         <v>0x80,</v>
       </c>
       <c r="F89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F80*128+F81*64+F82*32+F83*16+F84*8+F85*4+F86*2+F87,2),",")</f>
+        <f t="shared" si="24"/>
         <v>0x00,</v>
       </c>
       <c r="G89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G80*128+G81*64+G82*32+G83*16+G84*8+G85*4+G86*2+G87,2),",")</f>
+        <f t="shared" si="24"/>
         <v>0x3C,</v>
       </c>
       <c r="H89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H80*128+H81*64+H82*32+H83*16+H84*8+H85*4+H86*2+H87,2),",")</f>
+        <f t="shared" si="24"/>
         <v>0x12,</v>
       </c>
       <c r="I89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I80*128+I81*64+I82*32+I83*16+I84*8+I85*4+I86*2+I87,2),",")</f>
+        <f t="shared" si="24"/>
         <v>0x04,</v>
       </c>
       <c r="L89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L80*128+L81*64+L82*32+L83*16+L84*8+L85*4+L86*2+L87,2),",")</f>
+        <f t="shared" ref="L89:S89" si="25">CONCATENATE("0x",DEC2HEX(L80*128+L81*64+L82*32+L83*16+L84*8+L85*4+L86*2+L87,2),",")</f>
         <v>0xFC,</v>
       </c>
       <c r="M89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M80*128+M81*64+M82*32+M83*16+M84*8+M85*4+M86*2+M87,2),",")</f>
+        <f t="shared" si="25"/>
         <v>0x02,</v>
       </c>
       <c r="N89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N80*128+N81*64+N82*32+N83*16+N84*8+N85*4+N86*2+N87,2),",")</f>
+        <f t="shared" si="25"/>
         <v>0x02,</v>
       </c>
       <c r="O89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O80*128+O81*64+O82*32+O83*16+O84*8+O85*4+O86*2+O87,2),",")</f>
+        <f t="shared" si="25"/>
         <v>0xFC,</v>
       </c>
       <c r="P89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P80*128+P81*64+P82*32+P83*16+P84*8+P85*4+P86*2+P87,2),",")</f>
+        <f t="shared" si="25"/>
         <v>0x1C,</v>
       </c>
       <c r="Q89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q80*128+Q81*64+Q82*32+Q83*16+Q84*8+Q85*4+Q86*2+Q87,2),",")</f>
+        <f t="shared" si="25"/>
         <v>0x02,</v>
       </c>
       <c r="R89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R80*128+R81*64+R82*32+R83*16+R84*8+R85*4+R86*2+R87,2),",")</f>
+        <f t="shared" si="25"/>
         <v>0x02,</v>
       </c>
       <c r="S89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S80*128+S81*64+S82*32+S83*16+S84*8+S85*4+S86*2+S87,2),",")</f>
+        <f t="shared" si="25"/>
         <v>0x1C,</v>
       </c>
       <c r="V89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V80*128+V81*64+V82*32+V83*16+V84*8+V85*4+V86*2+V87,2),",")</f>
+        <f t="shared" ref="V89:AC89" si="26">CONCATENATE("0x",DEC2HEX(V80*128+V81*64+V82*32+V83*16+V84*8+V85*4+V86*2+V87,2),",")</f>
         <v>0xFC,</v>
       </c>
       <c r="W89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W80*128+W81*64+W82*32+W83*16+W84*8+W85*4+W86*2+W87,2),",")</f>
+        <f t="shared" si="26"/>
         <v>0x02,</v>
       </c>
       <c r="X89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X80*128+X81*64+X82*32+X83*16+X84*8+X85*4+X86*2+X87,2),",")</f>
+        <f t="shared" si="26"/>
         <v>0x04,</v>
       </c>
       <c r="Y89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y80*128+Y81*64+Y82*32+Y83*16+Y84*8+Y85*4+Y86*2+Y87,2),",")</f>
+        <f t="shared" si="26"/>
         <v>0xF8,</v>
       </c>
       <c r="Z89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z80*128+Z81*64+Z82*32+Z83*16+Z84*8+Z85*4+Z86*2+Z87,2),",")</f>
+        <f t="shared" si="26"/>
         <v>0x1C,</v>
       </c>
       <c r="AA89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA80*128+AA81*64+AA82*32+AA83*16+AA84*8+AA85*4+AA86*2+AA87,2),",")</f>
+        <f t="shared" si="26"/>
         <v>0x02,</v>
       </c>
       <c r="AB89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB80*128+AB81*64+AB82*32+AB83*16+AB84*8+AB85*4+AB86*2+AB87,2),",")</f>
+        <f t="shared" si="26"/>
         <v>0x04,</v>
       </c>
       <c r="AC89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC80*128+AC81*64+AC82*32+AC83*16+AC84*8+AC85*4+AC86*2+AC87,2),",")</f>
+        <f t="shared" si="26"/>
         <v>0x18,</v>
       </c>
       <c r="AF89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF80*128+AF81*64+AF82*32+AF83*16+AF84*8+AF85*4+AF86*2+AF87,2),",")</f>
+        <f t="shared" ref="AF89:AM89" si="27">CONCATENATE("0x",DEC2HEX(AF80*128+AF81*64+AF82*32+AF83*16+AF84*8+AF85*4+AF86*2+AF87,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="AG89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG80*128+AG81*64+AG82*32+AG83*16+AG84*8+AG85*4+AG86*2+AG87,2),",")</f>
+        <f t="shared" si="27"/>
         <v>0x0E,</v>
       </c>
       <c r="AH89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH80*128+AH81*64+AH82*32+AH83*16+AH84*8+AH85*4+AH86*2+AH87,2),",")</f>
+        <f t="shared" si="27"/>
         <v>0x0E,</v>
       </c>
       <c r="AI89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI80*128+AI81*64+AI82*32+AI83*16+AI84*8+AI85*4+AI86*2+AI87,2),",")</f>
+        <f t="shared" si="27"/>
         <v>0xFE,</v>
       </c>
       <c r="AJ89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ80*128+AJ81*64+AJ82*32+AJ83*16+AJ84*8+AJ85*4+AJ86*2+AJ87,2),",")</f>
+        <f t="shared" si="27"/>
         <v>0x1E,</v>
       </c>
       <c r="AK89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK80*128+AK81*64+AK82*32+AK83*16+AK84*8+AK85*4+AK86*2+AK87,2),",")</f>
+        <f t="shared" si="27"/>
         <v>0x06,</v>
       </c>
       <c r="AL89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL80*128+AL81*64+AL82*32+AL83*16+AL84*8+AL85*4+AL86*2+AL87,2),",")</f>
+        <f t="shared" si="27"/>
         <v>0x06,</v>
       </c>
       <c r="AM89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM80*128+AM81*64+AM82*32+AM83*16+AM84*8+AM85*4+AM86*2+AM87,2),",")</f>
+        <f t="shared" si="27"/>
         <v>0x1E,</v>
       </c>
     </row>
@@ -6130,131 +5906,131 @@
     </row>
     <row r="102" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B93*128+B94*64+B95*32+B96*16+B97*8+B98*4+B99*2+B100,2),",")</f>
+        <f t="shared" ref="B102:I102" si="28">CONCATENATE("0x",DEC2HEX(B93*128+B94*64+B95*32+B96*16+B97*8+B98*4+B99*2+B100,2),",")</f>
         <v>0xEE,</v>
       </c>
       <c r="C102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C93*128+C94*64+C95*32+C96*16+C97*8+C98*4+C99*2+C100,2),",")</f>
+        <f t="shared" si="28"/>
         <v>0x10,</v>
       </c>
       <c r="D102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D93*128+D94*64+D95*32+D96*16+D97*8+D98*4+D99*2+D100,2),",")</f>
+        <f t="shared" si="28"/>
         <v>0x10,</v>
       </c>
       <c r="E102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E93*128+E94*64+E95*32+E96*16+E97*8+E98*4+E99*2+E100,2),",")</f>
+        <f t="shared" si="28"/>
         <v>0xEE,</v>
       </c>
       <c r="F102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F93*128+F94*64+F95*32+F96*16+F97*8+F98*4+F99*2+F100,2),",")</f>
+        <f t="shared" si="28"/>
         <v>0x12,</v>
       </c>
       <c r="G102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G93*128+G94*64+G95*32+G96*16+G97*8+G98*4+G99*2+G100,2),",")</f>
+        <f t="shared" si="28"/>
         <v>0x0C,</v>
       </c>
       <c r="H102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H93*128+H94*64+H95*32+H96*16+H97*8+H98*4+H99*2+H100,2),",")</f>
+        <f t="shared" si="28"/>
         <v>0x0C,</v>
       </c>
       <c r="I102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I93*128+I94*64+I95*32+I96*16+I97*8+I98*4+I99*2+I100,2),",")</f>
+        <f t="shared" si="28"/>
         <v>0x12,</v>
       </c>
       <c r="L102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L93*128+L94*64+L95*32+L96*16+L97*8+L98*4+L99*2+L100,2),",")</f>
+        <f t="shared" ref="L102:S102" si="29">CONCATENATE("0x",DEC2HEX(L93*128+L94*64+L95*32+L96*16+L97*8+L98*4+L99*2+L100,2),",")</f>
         <v>0xE0,</v>
       </c>
       <c r="M102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M93*128+M94*64+M95*32+M96*16+M97*8+M98*4+M99*2+M100,2),",")</f>
+        <f t="shared" si="29"/>
         <v>0x1E,</v>
       </c>
       <c r="N102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N93*128+N94*64+N95*32+N96*16+N97*8+N98*4+N99*2+N100,2),",")</f>
+        <f t="shared" si="29"/>
         <v>0x10,</v>
       </c>
       <c r="O102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O93*128+O94*64+O95*32+O96*16+O97*8+O98*4+O99*2+O100,2),",")</f>
+        <f t="shared" si="29"/>
         <v>0xE0,</v>
       </c>
       <c r="P102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P93*128+P94*64+P95*32+P96*16+P97*8+P98*4+P99*2+P100,2),",")</f>
+        <f t="shared" si="29"/>
         <v>0x19,</v>
       </c>
       <c r="Q102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q93*128+Q94*64+Q95*32+Q96*16+Q97*8+Q98*4+Q99*2+Q100,2),",")</f>
+        <f t="shared" si="29"/>
         <v>0x05,</v>
       </c>
       <c r="R102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R93*128+R94*64+R95*32+R96*16+R97*8+R98*4+R99*2+R100,2),",")</f>
+        <f t="shared" si="29"/>
         <v>0x07,</v>
       </c>
       <c r="S102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S93*128+S94*64+S95*32+S96*16+S97*8+S98*4+S99*2+S100,2),",")</f>
+        <f t="shared" si="29"/>
         <v>0x1C,</v>
       </c>
       <c r="V102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V93*128+V94*64+V95*32+V96*16+V97*8+V98*4+V99*2+V100,2),",")</f>
+        <f t="shared" ref="V102:AC102" si="30">CONCATENATE("0x",DEC2HEX(V93*128+V94*64+V95*32+V96*16+V97*8+V98*4+V99*2+V100,2),",")</f>
         <v>0x8E,</v>
       </c>
       <c r="W102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W93*128+W94*64+W95*32+W96*16+W97*8+W98*4+W99*2+W100,2),",")</f>
+        <f t="shared" si="30"/>
         <v>0x92,</v>
       </c>
       <c r="X102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X93*128+X94*64+X95*32+X96*16+X97*8+X98*4+X99*2+X100,2),",")</f>
+        <f t="shared" si="30"/>
         <v>0xA2,</v>
       </c>
       <c r="Y102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y93*128+Y94*64+Y95*32+Y96*16+Y97*8+Y98*4+Y99*2+Y100,2),",")</f>
+        <f t="shared" si="30"/>
         <v>0xC2,</v>
       </c>
       <c r="Z102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z93*128+Z94*64+Z95*32+Z96*16+Z97*8+Z98*4+Z99*2+Z100,2),",")</f>
+        <f t="shared" si="30"/>
         <v>0x12,</v>
       </c>
       <c r="AA102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA93*128+AA94*64+AA95*32+AA96*16+AA97*8+AA98*4+AA99*2+AA100,2),",")</f>
+        <f t="shared" si="30"/>
         <v>0x16,</v>
       </c>
       <c r="AB102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB93*128+AB94*64+AB95*32+AB96*16+AB97*8+AB98*4+AB99*2+AB100,2),",")</f>
+        <f t="shared" si="30"/>
         <v>0x1A,</v>
       </c>
       <c r="AC102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC93*128+AC94*64+AC95*32+AC96*16+AC97*8+AC98*4+AC99*2+AC100,2),",")</f>
+        <f t="shared" si="30"/>
         <v>0x12,</v>
       </c>
       <c r="AF102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF93*128+AF94*64+AF95*32+AF96*16+AF97*8+AF98*4+AF99*2+AF100,2),",")</f>
+        <f t="shared" ref="AF102:AM102" si="31">CONCATENATE("0x",DEC2HEX(AF93*128+AF94*64+AF95*32+AF96*16+AF97*8+AF98*4+AF99*2+AF100,2),",")</f>
         <v>0x00,</v>
       </c>
       <c r="AG102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG93*128+AG94*64+AG95*32+AG96*16+AG97*8+AG98*4+AG99*2+AG100,2),",")</f>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="AH102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH93*128+AH94*64+AH95*32+AH96*16+AH97*8+AH98*4+AH99*2+AH100,2),",")</f>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="AI102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI93*128+AI94*64+AI95*32+AI96*16+AI97*8+AI98*4+AI99*2+AI100,2),",")</f>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="AJ102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ93*128+AJ94*64+AJ95*32+AJ96*16+AJ97*8+AJ98*4+AJ99*2+AJ100,2),",")</f>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="AK102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK93*128+AK94*64+AK95*32+AK96*16+AK97*8+AK98*4+AK99*2+AK100,2),",")</f>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="AL102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL93*128+AL94*64+AL95*32+AL96*16+AL97*8+AL98*4+AL99*2+AL100,2),",")</f>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="AM102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM93*128+AM94*64+AM95*32+AM96*16+AM97*8+AM98*4+AM99*2+AM100,2),",")</f>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
     </row>
@@ -6593,131 +6369,131 @@
     </row>
     <row r="115" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B106*128+B107*64+B108*32+B109*16+B110*8+B111*4+B112*2+B113,2),",")</f>
+        <f t="shared" ref="B115:I115" si="32">CONCATENATE("0x",DEC2HEX(B106*128+B107*64+B108*32+B109*16+B110*8+B111*4+B112*2+B113,2),",")</f>
         <v>0x00,</v>
       </c>
       <c r="C115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C106*128+C107*64+C108*32+C109*16+C110*8+C111*4+C112*2+C113,2),",")</f>
+        <f t="shared" si="32"/>
         <v>0x00,</v>
       </c>
       <c r="D115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D106*128+D107*64+D108*32+D109*16+D110*8+D111*4+D112*2+D113,2),",")</f>
+        <f t="shared" si="32"/>
         <v>0x00,</v>
       </c>
       <c r="E115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E106*128+E107*64+E108*32+E109*16+E110*8+E111*4+E112*2+E113,2),",")</f>
+        <f t="shared" si="32"/>
         <v>0x00,</v>
       </c>
       <c r="F115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F106*128+F107*64+F108*32+F109*16+F110*8+F111*4+F112*2+F113,2),",")</f>
+        <f t="shared" si="32"/>
         <v>0x00,</v>
       </c>
       <c r="G115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G106*128+G107*64+G108*32+G109*16+G110*8+G111*4+G112*2+G113,2),",")</f>
+        <f t="shared" si="32"/>
         <v>0x00,</v>
       </c>
       <c r="H115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H106*128+H107*64+H108*32+H109*16+H110*8+H111*4+H112*2+H113,2),",")</f>
+        <f t="shared" si="32"/>
         <v>0x00,</v>
       </c>
       <c r="I115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I106*128+I107*64+I108*32+I109*16+I110*8+I111*4+I112*2+I113,2),",")</f>
+        <f t="shared" si="32"/>
         <v>0x00,</v>
       </c>
       <c r="L115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L106*128+L107*64+L108*32+L109*16+L110*8+L111*4+L112*2+L113,2),",")</f>
+        <f t="shared" ref="L115:S115" si="33">CONCATENATE("0x",DEC2HEX(L106*128+L107*64+L108*32+L109*16+L110*8+L111*4+L112*2+L113,2),",")</f>
         <v>0x00,</v>
       </c>
       <c r="M115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M106*128+M107*64+M108*32+M109*16+M110*8+M111*4+M112*2+M113,2),",")</f>
+        <f t="shared" si="33"/>
         <v>0x00,</v>
       </c>
       <c r="N115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N106*128+N107*64+N108*32+N109*16+N110*8+N111*4+N112*2+N113,2),",")</f>
+        <f t="shared" si="33"/>
         <v>0x00,</v>
       </c>
       <c r="O115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O106*128+O107*64+O108*32+O109*16+O110*8+O111*4+O112*2+O113,2),",")</f>
+        <f t="shared" si="33"/>
         <v>0x00,</v>
       </c>
       <c r="P115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P106*128+P107*64+P108*32+P109*16+P110*8+P111*4+P112*2+P113,2),",")</f>
+        <f t="shared" si="33"/>
         <v>0x00,</v>
       </c>
       <c r="Q115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q106*128+Q107*64+Q108*32+Q109*16+Q110*8+Q111*4+Q112*2+Q113,2),",")</f>
+        <f t="shared" si="33"/>
         <v>0x00,</v>
       </c>
       <c r="R115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R106*128+R107*64+R108*32+R109*16+R110*8+R111*4+R112*2+R113,2),",")</f>
+        <f t="shared" si="33"/>
         <v>0x00,</v>
       </c>
       <c r="S115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S106*128+S107*64+S108*32+S109*16+S110*8+S111*4+S112*2+S113,2),",")</f>
+        <f t="shared" si="33"/>
         <v>0x00,</v>
       </c>
       <c r="V115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V106*128+V107*64+V108*32+V109*16+V110*8+V111*4+V112*2+V113,2),",")</f>
+        <f t="shared" ref="V115:AC115" si="34">CONCATENATE("0x",DEC2HEX(V106*128+V107*64+V108*32+V109*16+V110*8+V111*4+V112*2+V113,2),",")</f>
         <v>0x00,</v>
       </c>
       <c r="W115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W106*128+W107*64+W108*32+W109*16+W110*8+W111*4+W112*2+W113,2),",")</f>
+        <f t="shared" si="34"/>
         <v>0x00,</v>
       </c>
       <c r="X115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X106*128+X107*64+X108*32+X109*16+X110*8+X111*4+X112*2+X113,2),",")</f>
+        <f t="shared" si="34"/>
         <v>0x00,</v>
       </c>
       <c r="Y115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y106*128+Y107*64+Y108*32+Y109*16+Y110*8+Y111*4+Y112*2+Y113,2),",")</f>
+        <f t="shared" si="34"/>
         <v>0x00,</v>
       </c>
       <c r="Z115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z106*128+Z107*64+Z108*32+Z109*16+Z110*8+Z111*4+Z112*2+Z113,2),",")</f>
+        <f t="shared" si="34"/>
         <v>0x00,</v>
       </c>
       <c r="AA115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA106*128+AA107*64+AA108*32+AA109*16+AA110*8+AA111*4+AA112*2+AA113,2),",")</f>
+        <f t="shared" si="34"/>
         <v>0x00,</v>
       </c>
       <c r="AB115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB106*128+AB107*64+AB108*32+AB109*16+AB110*8+AB111*4+AB112*2+AB113,2),",")</f>
+        <f t="shared" si="34"/>
         <v>0x00,</v>
       </c>
       <c r="AC115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC106*128+AC107*64+AC108*32+AC109*16+AC110*8+AC111*4+AC112*2+AC113,2),",")</f>
+        <f t="shared" si="34"/>
         <v>0x00,</v>
       </c>
       <c r="AF115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF106*128+AF107*64+AF108*32+AF109*16+AF110*8+AF111*4+AF112*2+AF113,2),",")</f>
+        <f t="shared" ref="AF115:AM115" si="35">CONCATENATE("0x",DEC2HEX(AF106*128+AF107*64+AF108*32+AF109*16+AF110*8+AF111*4+AF112*2+AF113,2),",")</f>
         <v>0x00,</v>
       </c>
       <c r="AG115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG106*128+AG107*64+AG108*32+AG109*16+AG110*8+AG111*4+AG112*2+AG113,2),",")</f>
+        <f t="shared" si="35"/>
         <v>0x00,</v>
       </c>
       <c r="AH115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH106*128+AH107*64+AH108*32+AH109*16+AH110*8+AH111*4+AH112*2+AH113,2),",")</f>
+        <f t="shared" si="35"/>
         <v>0x00,</v>
       </c>
       <c r="AI115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI106*128+AI107*64+AI108*32+AI109*16+AI110*8+AI111*4+AI112*2+AI113,2),",")</f>
+        <f t="shared" si="35"/>
         <v>0x00,</v>
       </c>
       <c r="AJ115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ106*128+AJ107*64+AJ108*32+AJ109*16+AJ110*8+AJ111*4+AJ112*2+AJ113,2),",")</f>
+        <f t="shared" si="35"/>
         <v>0x00,</v>
       </c>
       <c r="AK115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK106*128+AK107*64+AK108*32+AK109*16+AK110*8+AK111*4+AK112*2+AK113,2),",")</f>
+        <f t="shared" si="35"/>
         <v>0x00,</v>
       </c>
       <c r="AL115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL106*128+AL107*64+AL108*32+AL109*16+AL110*8+AL111*4+AL112*2+AL113,2),",")</f>
+        <f t="shared" si="35"/>
         <v>0x00,</v>
       </c>
       <c r="AM115" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM106*128+AM107*64+AM108*32+AM109*16+AM110*8+AM111*4+AM112*2+AM113,2),",")</f>
+        <f t="shared" si="35"/>
         <v>0x00,</v>
       </c>
     </row>
@@ -6777,8 +6553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM143"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="AR100" sqref="AR100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V104" sqref="V104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8405,7 +8181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>1</v>
       </c>
@@ -8473,7 +8249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>1</v>
       </c>
@@ -8529,7 +8305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="8">
         <v>1</v>
       </c>
@@ -8599,13 +8375,13 @@
       </c>
       <c r="AM35" s="10"/>
     </row>
-    <row r="36" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="L36" s="7"/>
       <c r="V36" s="7"/>
       <c r="AF36" s="7"/>
     </row>
-    <row r="37" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B37" t="str">
         <f>CONCATENATE("0x",DEC2HEX(B28*128+B29*64+B30*32+B31*16+B32*8+B33*4+B34*2+B35,2),",")</f>
         <v>0x7F,</v>
@@ -8735,44 +8511,68 @@
         <v>0x1E,</v>
       </c>
     </row>
-    <row r="38" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
       <c r="B38" t="str">
         <f>CONCATENATE(B37," ",C37," ",D37," ",E37,"   //",A38)</f>
-        <v>0x7F, 0x41, 0x41, 0x3E,   //</v>
+        <v>0x7F, 0x41, 0x41, 0x3E,   //D</v>
+      </c>
+      <c r="K38" t="s">
+        <v>8</v>
       </c>
       <c r="L38" t="str">
         <f>CONCATENATE(L37," ",M37," ",N37," ",O37,"   //",K38)</f>
-        <v>0x7F, 0x49, 0x49, 0x41,   //</v>
+        <v>0x7F, 0x49, 0x49, 0x41,   //E</v>
+      </c>
+      <c r="U38" t="s">
+        <v>10</v>
       </c>
       <c r="V38" t="str">
         <f>CONCATENATE(V37," ",W37," ",X37," ",Y37,"   //",U38)</f>
-        <v>0x7F, 0x48, 0x48, 0x40,   //</v>
+        <v>0x7F, 0x48, 0x48, 0x40,   //F</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>12</v>
       </c>
       <c r="AF38" t="str">
         <f>CONCATENATE(AF37," ",AG37," ",AH37," ",AI37,"   //",AE38)</f>
-        <v>0x3E, 0x41, 0x45, 0x26,   //</v>
-      </c>
-    </row>
-    <row r="39" spans="2:39" x14ac:dyDescent="0.25">
+        <v>0x3E, 0x41, 0x45, 0x26,   //G</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
       <c r="B39" t="str">
         <f>CONCATENATE(F37," ",G37," ",H37," ",I37,"   //",A39)</f>
-        <v>0x06, 0x09, 0x09, 0x7F,   //</v>
+        <v>0x06, 0x09, 0x09, 0x7F,   //d</v>
+      </c>
+      <c r="K39" t="s">
+        <v>9</v>
       </c>
       <c r="L39" t="str">
         <f>CONCATENATE(P37," ",Q37," ",R37," ",S37,"   //",K39)</f>
-        <v>0x0E, 0x15, 0x15, 0x0C,   //</v>
+        <v>0x0E, 0x15, 0x15, 0x0C,   //e</v>
+      </c>
+      <c r="U39" t="s">
+        <v>11</v>
       </c>
       <c r="V39" t="str">
         <f>CONCATENATE(Z37," ",AA37," ",AB37," ",AC37,"   //",U39)</f>
-        <v>0x00, 0x3F, 0x48, 0x20,   //</v>
+        <v>0x00, 0x3F, 0x48, 0x20,   //f</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>13</v>
       </c>
       <c r="AF39" t="str">
         <f>CONCATENATE(AJ37," ",AK37," ",AL37," ",AM37,"   //",AE39)</f>
-        <v>0x18, 0x25, 0x25, 0x1E,   //</v>
-      </c>
-    </row>
-    <row r="40" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:39" x14ac:dyDescent="0.25">
+        <v>0x18, 0x25, 0x25, 0x1E,   //g</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -8806,7 +8606,7 @@
       <c r="AL41" s="2"/>
       <c r="AM41" s="3"/>
     </row>
-    <row r="42" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <v>1</v>
       </c>
@@ -8862,7 +8662,7 @@
       <c r="AL42" s="5"/>
       <c r="AM42" s="6"/>
     </row>
-    <row r="43" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <v>1</v>
       </c>
@@ -8914,7 +8714,7 @@
       <c r="AL43" s="5"/>
       <c r="AM43" s="6"/>
     </row>
-    <row r="44" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <v>1</v>
       </c>
@@ -8968,7 +8768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>1</v>
       </c>
@@ -9030,7 +8830,7 @@
       </c>
       <c r="AM45" s="6"/>
     </row>
-    <row r="46" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
         <v>1</v>
       </c>
@@ -9088,7 +8888,7 @@
       <c r="AL46" s="5"/>
       <c r="AM46" s="6"/>
     </row>
-    <row r="47" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
         <v>1</v>
       </c>
@@ -9150,7 +8950,7 @@
       </c>
       <c r="AM47" s="6"/>
     </row>
-    <row r="48" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="8">
         <v>1</v>
       </c>
@@ -9214,13 +9014,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
       <c r="L49" s="7"/>
       <c r="V49" s="7"/>
       <c r="AF49" s="7"/>
     </row>
-    <row r="50" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B50" t="str">
         <f>CONCATENATE("0x",DEC2HEX(B41*128+B42*64+B43*32+B44*16+B45*8+B46*4+B47*2+B48,2),",")</f>
         <v>0x7F,</v>
@@ -9350,44 +9150,68 @@
         <v>0x11,</v>
       </c>
     </row>
-    <row r="51" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
       <c r="B51" t="str">
         <f>CONCATENATE(B50," ",C50," ",D50," ",E50,"   //",A51)</f>
-        <v>0x7F, 0x08, 0x08, 0x7F,   //</v>
+        <v>0x7F, 0x08, 0x08, 0x7F,   //H</v>
+      </c>
+      <c r="K51" t="s">
+        <v>16</v>
       </c>
       <c r="L51" t="str">
         <f>CONCATENATE(L50," ",M50," ",N50," ",O50,"   //",K51)</f>
-        <v>0x00, 0x41, 0x7F, 0x41,   //</v>
+        <v>0x00, 0x41, 0x7F, 0x41,   //I</v>
+      </c>
+      <c r="U51" t="s">
+        <v>18</v>
       </c>
       <c r="V51" t="str">
         <f>CONCATENATE(V50," ",W50," ",X50," ",Y50,"   //",U51)</f>
-        <v>0x02, 0x01, 0x41, 0x7E,   //</v>
+        <v>0x02, 0x01, 0x41, 0x7E,   //J</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>20</v>
       </c>
       <c r="AF51" t="str">
         <f>CONCATENATE(AF50," ",AG50," ",AH50," ",AI50,"   //",AE51)</f>
-        <v>0x7F, 0x08, 0x14, 0x63,   //</v>
-      </c>
-    </row>
-    <row r="52" spans="2:39" x14ac:dyDescent="0.25">
+        <v>0x7F, 0x08, 0x14, 0x63,   //K</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
       <c r="B52" t="str">
         <f>CONCATENATE(F50," ",G50," ",H50," ",I50,"   //",A52)</f>
-        <v>0x7F, 0x08, 0x08, 0x07,   //</v>
+        <v>0x7F, 0x08, 0x08, 0x07,   //h</v>
+      </c>
+      <c r="K52" t="s">
+        <v>17</v>
       </c>
       <c r="L52" t="str">
         <f>CONCATENATE(P50," ",Q50," ",R50," ",S50,"   //",K52)</f>
-        <v>0x00, 0x00, 0x17, 0x00,   //</v>
+        <v>0x00, 0x00, 0x17, 0x00,   //i</v>
+      </c>
+      <c r="U52" t="s">
+        <v>19</v>
       </c>
       <c r="V52" t="str">
         <f>CONCATENATE(Z50," ",AA50," ",AB50," ",AC50,"   //",U52)</f>
-        <v>0x02, 0x01, 0x2E, 0x00,   //</v>
+        <v>0x02, 0x01, 0x2E, 0x00,   //j</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>21</v>
       </c>
       <c r="AF52" t="str">
         <f>CONCATENATE(AJ50," ",AK50," ",AL50," ",AM50,"   //",AE52)</f>
-        <v>0x7F, 0x04, 0x0A, 0x11,   //</v>
-      </c>
-    </row>
-    <row r="53" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="2:39" x14ac:dyDescent="0.25">
+        <v>0x7F, 0x04, 0x0A, 0x11,   //k</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -9421,7 +9245,7 @@
       <c r="AL54" s="2"/>
       <c r="AM54" s="3"/>
     </row>
-    <row r="55" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
         <v>1</v>
       </c>
@@ -9471,7 +9295,7 @@
       <c r="AL55" s="5"/>
       <c r="AM55" s="6"/>
     </row>
-    <row r="56" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B56" s="4">
         <v>1</v>
       </c>
@@ -9527,7 +9351,7 @@
       <c r="AL56" s="5"/>
       <c r="AM56" s="6"/>
     </row>
-    <row r="57" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
         <v>1</v>
       </c>
@@ -9583,7 +9407,7 @@
       <c r="AL57" s="5"/>
       <c r="AM57" s="6"/>
     </row>
-    <row r="58" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
         <v>1</v>
       </c>
@@ -9653,7 +9477,7 @@
       </c>
       <c r="AM58" s="6"/>
     </row>
-    <row r="59" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
         <v>1</v>
       </c>
@@ -9721,7 +9545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
         <v>1</v>
       </c>
@@ -9783,7 +9607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="8">
         <v>1</v>
       </c>
@@ -9851,13 +9675,13 @@
       </c>
       <c r="AM61" s="10"/>
     </row>
-    <row r="62" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
       <c r="L62" s="7"/>
       <c r="V62" s="7"/>
       <c r="AF62" s="7"/>
     </row>
-    <row r="63" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B63" t="str">
         <f>CONCATENATE("0x",DEC2HEX(B54*128+B55*64+B56*32+B57*16+B58*8+B59*4+B60*2+B61,2),",")</f>
         <v>0x7F,</v>
@@ -9987,44 +9811,68 @@
         <v>0x06,</v>
       </c>
     </row>
-    <row r="64" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
       <c r="B64" t="str">
         <f>CONCATENATE(B63," ",C63," ",D63," ",E63,"   //",A64)</f>
-        <v>0x7F, 0x01, 0x01, 0x01,   //</v>
+        <v>0x7F, 0x01, 0x01, 0x01,   //L</v>
+      </c>
+      <c r="K64" t="s">
+        <v>24</v>
       </c>
       <c r="L64" t="str">
         <f>CONCATENATE(L63," ",M63," ",N63," ",O63,"   //",K64)</f>
-        <v>0x7F, 0x30, 0x30, 0x7F,   //</v>
+        <v>0x7F, 0x30, 0x30, 0x7F,   //M</v>
+      </c>
+      <c r="U64" t="s">
+        <v>26</v>
       </c>
       <c r="V64" t="str">
         <f>CONCATENATE(V63," ",W63," ",X63," ",Y63,"   //",U64)</f>
-        <v>0x7F, 0x30, 0x0C, 0x7F,   //</v>
+        <v>0x7F, 0x30, 0x0C, 0x7F,   //N</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>28</v>
       </c>
       <c r="AF64" t="str">
         <f>CONCATENATE(AF63," ",AG63," ",AH63," ",AI63,"   //",AE64)</f>
-        <v>0x3E, 0x41, 0x41, 0x3E,   //</v>
-      </c>
-    </row>
-    <row r="65" spans="2:39" x14ac:dyDescent="0.25">
+        <v>0x3E, 0x41, 0x41, 0x3E,   //O</v>
+      </c>
+    </row>
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>23</v>
+      </c>
       <c r="B65" t="str">
         <f>CONCATENATE(F63," ",G63," ",H63," ",I63,"   //",A65)</f>
-        <v>0x00, 0x00, 0x7F, 0x00,   //</v>
+        <v>0x00, 0x00, 0x7F, 0x00,   //l</v>
+      </c>
+      <c r="K65" t="s">
+        <v>25</v>
       </c>
       <c r="L65" t="str">
         <f>CONCATENATE(P63," ",Q63," ",R63," ",S63,"   //",K65)</f>
-        <v>0x0F, 0x0C, 0x0C, 0x0F,   //</v>
+        <v>0x0F, 0x0C, 0x0C, 0x0F,   //m</v>
+      </c>
+      <c r="U65" t="s">
+        <v>27</v>
       </c>
       <c r="V65" t="str">
         <f>CONCATENATE(Z63," ",AA63," ",AB63," ",AC63,"   //",U65)</f>
-        <v>0x0F, 0x08, 0x08, 0x07,   //</v>
+        <v>0x0F, 0x08, 0x08, 0x07,   //n</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>29</v>
       </c>
       <c r="AF65" t="str">
         <f>CONCATENATE(AJ63," ",AK63," ",AL63," ",AM63,"   //",AE65)</f>
-        <v>0x06, 0x09, 0x09, 0x06,   //</v>
-      </c>
-    </row>
-    <row r="66" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="2:39" x14ac:dyDescent="0.25">
+        <v>0x06, 0x09, 0x09, 0x06,   //o</v>
+      </c>
+    </row>
+    <row r="66" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -10058,7 +9906,7 @@
       <c r="AL67" s="2"/>
       <c r="AM67" s="3"/>
     </row>
-    <row r="68" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B68" s="4">
         <v>1</v>
       </c>
@@ -10112,7 +9960,7 @@
       <c r="AL68" s="5"/>
       <c r="AM68" s="6"/>
     </row>
-    <row r="69" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B69" s="4">
         <v>1</v>
       </c>
@@ -10162,7 +10010,7 @@
       <c r="AL69" s="5"/>
       <c r="AM69" s="6"/>
     </row>
-    <row r="70" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
         <v>1</v>
       </c>
@@ -10226,7 +10074,7 @@
       </c>
       <c r="AM70" s="6"/>
     </row>
-    <row r="71" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B71" s="4">
         <v>1</v>
       </c>
@@ -10296,7 +10144,7 @@
       <c r="AL71" s="5"/>
       <c r="AM71" s="6"/>
     </row>
-    <row r="72" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
         <v>1</v>
       </c>
@@ -10358,7 +10206,7 @@
       </c>
       <c r="AM72" s="6"/>
     </row>
-    <row r="73" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
         <v>1</v>
       </c>
@@ -10424,7 +10272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="8">
         <v>1</v>
       </c>
@@ -10484,13 +10332,13 @@
       </c>
       <c r="AM74" s="10"/>
     </row>
-    <row r="75" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B75" s="7"/>
       <c r="L75" s="7"/>
       <c r="V75" s="7"/>
       <c r="AF75" s="7"/>
     </row>
-    <row r="76" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B76" t="str">
         <f>CONCATENATE("0x",DEC2HEX(B67*128+B68*64+B69*32+B70*16+B71*8+B72*4+B73*2+B74,2),",")</f>
         <v>0x7F,</v>
@@ -10620,44 +10468,68 @@
         <v>0x02,</v>
       </c>
     </row>
-    <row r="77" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>30</v>
+      </c>
       <c r="B77" t="str">
         <f>CONCATENATE(B76," ",C76," ",D76," ",E76,"   //",A77)</f>
-        <v>0x7F, 0x48, 0x48, 0x30,   //</v>
+        <v>0x7F, 0x48, 0x48, 0x30,   //P</v>
+      </c>
+      <c r="K77" t="s">
+        <v>32</v>
       </c>
       <c r="L77" t="str">
         <f>CONCATENATE(L76," ",M76," ",N76," ",O76,"   //",K77)</f>
-        <v>0x3E, 0x41, 0x43, 0x3F,   //</v>
+        <v>0x3E, 0x41, 0x43, 0x3F,   //Q</v>
+      </c>
+      <c r="U77" t="s">
+        <v>34</v>
       </c>
       <c r="V77" t="str">
         <f>CONCATENATE(V76," ",W76," ",X76," ",Y76,"   //",U77)</f>
-        <v>0x7F, 0x48, 0x48, 0x37,   //</v>
+        <v>0x7F, 0x48, 0x48, 0x37,   //R</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>36</v>
       </c>
       <c r="AF77" t="str">
         <f>CONCATENATE(AF76," ",AG76," ",AH76," ",AI76,"   //",AE77)</f>
-        <v>0x32, 0x49, 0x49, 0x26,   //</v>
-      </c>
-    </row>
-    <row r="78" spans="2:39" x14ac:dyDescent="0.25">
+        <v>0x32, 0x49, 0x49, 0x26,   //S</v>
+      </c>
+    </row>
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>31</v>
+      </c>
       <c r="B78" t="str">
         <f>CONCATENATE(F76," ",G76," ",H76," ",I76,"   //",A78)</f>
-        <v>0x1F, 0x12, 0x12, 0x0C,   //</v>
+        <v>0x1F, 0x12, 0x12, 0x0C,   //p</v>
+      </c>
+      <c r="K78" t="s">
+        <v>33</v>
       </c>
       <c r="L78" t="str">
         <f>CONCATENATE(P76," ",Q76," ",R76," ",S76,"   //",K78)</f>
-        <v>0x0C, 0x12, 0x12, 0x1F,   //</v>
+        <v>0x0C, 0x12, 0x12, 0x1F,   //q</v>
+      </c>
+      <c r="U78" t="s">
+        <v>35</v>
       </c>
       <c r="V78" t="str">
         <f>CONCATENATE(Z76," ",AA76," ",AB76," ",AC76,"   //",U78)</f>
-        <v>0x0F, 0x04, 0x08, 0x08,   //</v>
+        <v>0x0F, 0x04, 0x08, 0x08,   //r</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>37</v>
       </c>
       <c r="AF78" t="str">
         <f>CONCATENATE(AJ76," ",AK76," ",AL76," ",AM76,"   //",AE78)</f>
-        <v>0x08, 0x15, 0x15, 0x02,   //</v>
-      </c>
-    </row>
-    <row r="79" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="2:39" x14ac:dyDescent="0.25">
+        <v>0x08, 0x15, 0x15, 0x02,   //s</v>
+      </c>
+    </row>
+    <row r="79" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -10691,7 +10563,7 @@
       <c r="AL80" s="2"/>
       <c r="AM80" s="3"/>
     </row>
-    <row r="81" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B81" s="4">
         <v>1</v>
       </c>
@@ -10745,7 +10617,7 @@
       <c r="AL81" s="5"/>
       <c r="AM81" s="6"/>
     </row>
-    <row r="82" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5">
@@ -10793,7 +10665,7 @@
       <c r="AL82" s="5"/>
       <c r="AM82" s="6"/>
     </row>
-    <row r="83" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7">
@@ -10843,7 +10715,7 @@
       <c r="AL83" s="5"/>
       <c r="AM83" s="6"/>
     </row>
-    <row r="84" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7">
@@ -10907,7 +10779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7">
@@ -10973,7 +10845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
       <c r="C86" s="5"/>
       <c r="D86" s="7">
@@ -11045,7 +10917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9">
@@ -11111,13 +10983,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
       <c r="L88" s="7"/>
       <c r="V88" s="7"/>
       <c r="AF88" s="7"/>
     </row>
-    <row r="89" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B89" t="str">
         <f>CONCATENATE("0x",DEC2HEX(B80*128+B81*64+B82*32+B83*16+B84*8+B85*4+B86*2+B87,2),",")</f>
         <v>0x40,</v>
@@ -11247,44 +11119,68 @@
         <v>0x0F,</v>
       </c>
     </row>
-    <row r="90" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>38</v>
+      </c>
       <c r="B90" t="str">
         <f>CONCATENATE(B89," ",C89," ",D89," ",E89,"   //",A90)</f>
-        <v>0x40, 0x40, 0x7F, 0x40,   //</v>
+        <v>0x40, 0x40, 0x7F, 0x40,   //T</v>
+      </c>
+      <c r="K90" t="s">
+        <v>40</v>
       </c>
       <c r="L90" t="str">
         <f>CONCATENATE(L89," ",M89," ",N89," ",O89,"   //",K90)</f>
-        <v>0x7E, 0x01, 0x01, 0x7E,   //</v>
+        <v>0x7E, 0x01, 0x01, 0x7E,   //U</v>
+      </c>
+      <c r="U90" t="s">
+        <v>42</v>
       </c>
       <c r="V90" t="str">
         <f>CONCATENATE(V89," ",W89," ",X89," ",Y89,"   //",U90)</f>
-        <v>0x7E, 0x01, 0x02, 0x7C,   //</v>
+        <v>0x7E, 0x01, 0x02, 0x7C,   //V</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>44</v>
       </c>
       <c r="AF90" t="str">
         <f>CONCATENATE(AF89," ",AG89," ",AH89," ",AI89,"   //",AE90)</f>
-        <v>0x7F, 0x07, 0x07, 0x7F,   //</v>
-      </c>
-    </row>
-    <row r="91" spans="2:39" x14ac:dyDescent="0.25">
+        <v>0x7F, 0x07, 0x07, 0x7F,   //W</v>
+      </c>
+    </row>
+    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>39</v>
+      </c>
       <c r="B91" t="str">
         <f>CONCATENATE(F89," ",G89," ",H89," ",I89,"   //",A91)</f>
-        <v>0x00, 0x1E, 0x09, 0x02,   //</v>
+        <v>0x00, 0x1E, 0x09, 0x02,   //t</v>
+      </c>
+      <c r="K91" t="s">
+        <v>41</v>
       </c>
       <c r="L91" t="str">
         <f>CONCATENATE(P89," ",Q89," ",R89," ",S89,"   //",K91)</f>
-        <v>0x0E, 0x01, 0x01, 0x0E,   //</v>
+        <v>0x0E, 0x01, 0x01, 0x0E,   //u</v>
+      </c>
+      <c r="U91" t="s">
+        <v>43</v>
       </c>
       <c r="V91" t="str">
         <f>CONCATENATE(Z89," ",AA89," ",AB89," ",AC89,"   //",U91)</f>
-        <v>0x0E, 0x01, 0x02, 0x0C,   //</v>
+        <v>0x0E, 0x01, 0x02, 0x0C,   //v</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>45</v>
       </c>
       <c r="AF91" t="str">
         <f>CONCATENATE(AJ89," ",AK89," ",AL89," ",AM89,"   //",AE91)</f>
-        <v>0x0F, 0x03, 0x03, 0x0F,   //</v>
-      </c>
-    </row>
-    <row r="92" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="2:39" x14ac:dyDescent="0.25">
+        <v>0x0F, 0x03, 0x03, 0x0F,   //w</v>
+      </c>
+    </row>
+    <row r="92" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -11318,7 +11214,7 @@
       <c r="AL93" s="2"/>
       <c r="AM93" s="3"/>
     </row>
-    <row r="94" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B94" s="4">
         <v>1</v>
       </c>
@@ -11368,7 +11264,7 @@
       <c r="AL94" s="5"/>
       <c r="AM94" s="6"/>
     </row>
-    <row r="95" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B95" s="4">
         <v>1</v>
       </c>
@@ -11412,7 +11308,7 @@
       <c r="AL95" s="5"/>
       <c r="AM95" s="6"/>
     </row>
-    <row r="96" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B96" s="4">
         <v>1</v>
       </c>
@@ -11460,7 +11356,7 @@
       <c r="AL96" s="5"/>
       <c r="AM96" s="6"/>
     </row>
-    <row r="97" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B97" s="4"/>
       <c r="C97" s="7">
         <v>1</v>
@@ -11520,7 +11416,7 @@
       <c r="AL97" s="5"/>
       <c r="AM97" s="6"/>
     </row>
-    <row r="98" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B98" s="4">
         <v>1</v>
       </c>
@@ -11574,7 +11470,7 @@
       <c r="AL98" s="5"/>
       <c r="AM98" s="6"/>
     </row>
-    <row r="99" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B99" s="4">
         <v>1</v>
       </c>
@@ -11624,7 +11520,7 @@
       <c r="AL99" s="5"/>
       <c r="AM99" s="6"/>
     </row>
-    <row r="100" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="8">
         <v>1</v>
       </c>
@@ -11690,13 +11586,13 @@
       <c r="AL100" s="9"/>
       <c r="AM100" s="10"/>
     </row>
-    <row r="101" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B101" s="7"/>
       <c r="L101" s="7"/>
       <c r="V101" s="7"/>
       <c r="AF101" s="7"/>
     </row>
-    <row r="102" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B102" t="str">
         <f>CONCATENATE("0x",DEC2HEX(B93*128+B94*64+B95*32+B96*16+B97*8+B98*4+B99*2+B100,2),",")</f>
         <v>0x77,</v>
@@ -11826,44 +11722,62 @@
         <v>0x00,</v>
       </c>
     </row>
-    <row r="103" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>46</v>
+      </c>
       <c r="B103" t="str">
         <f>CONCATENATE(B102," ",C102," ",D102," ",E102,"   //",A103)</f>
-        <v>0x77, 0x08, 0x08, 0x77,   //</v>
+        <v>0x77, 0x08, 0x08, 0x77,   //X</v>
+      </c>
+      <c r="K103" t="s">
+        <v>48</v>
       </c>
       <c r="L103" t="str">
         <f>CONCATENATE(L102," ",M102," ",N102," ",O102,"   //",K103)</f>
-        <v>0x70, 0x0F, 0x08, 0x70,   //</v>
+        <v>0x70, 0x0F, 0x08, 0x70,   //Y</v>
+      </c>
+      <c r="U103" t="s">
+        <v>50</v>
       </c>
       <c r="V103" t="str">
         <f>CONCATENATE(V102," ",W102," ",X102," ",Y102,"   //",U103)</f>
-        <v>0x47, 0x49, 0x51, 0x61,   //</v>
+        <v>0x47, 0x49, 0x51, 0x61,   //Z</v>
       </c>
       <c r="AF103" t="str">
         <f>CONCATENATE(AF102," ",AG102," ",AH102," ",AI102,"   //",AE103)</f>
         <v>0x00, 0x00, 0x00, 0x00,   //</v>
       </c>
     </row>
-    <row r="104" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>47</v>
+      </c>
       <c r="B104" t="str">
         <f>CONCATENATE(F102," ",G102," ",H102," ",I102,"   //",A104)</f>
-        <v>0x09, 0x06, 0x06, 0x09,   //</v>
+        <v>0x09, 0x06, 0x06, 0x09,   //x</v>
+      </c>
+      <c r="K104" t="s">
+        <v>49</v>
       </c>
       <c r="L104" t="str">
         <f>CONCATENATE(P102," ",Q102," ",R102," ",S102,"   //",K104)</f>
-        <v>0x19, 0x05, 0x07, 0x1C,   //</v>
+        <v>0x19, 0x05, 0x07, 0x1C,   //y</v>
+      </c>
+      <c r="U104" t="s">
+        <v>51</v>
       </c>
       <c r="V104" t="str">
         <f>CONCATENATE(Z102," ",AA102," ",AB102," ",AC102,"   //",U104)</f>
-        <v>0x09, 0x0B, 0x0D, 0x09,   //</v>
+        <v>0x09, 0x0B, 0x0D, 0x09,   //z</v>
       </c>
       <c r="AF104" t="str">
         <f>CONCATENATE(AJ102," ",AK102," ",AL102," ",AM102,"   //",AE104)</f>
         <v>0x00, 0x00, 0x00, 0x00,   //</v>
       </c>
     </row>
-    <row r="105" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -11897,7 +11811,7 @@
       <c r="AL106" s="2"/>
       <c r="AM106" s="3"/>
     </row>
-    <row r="107" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B107" s="4"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -11931,7 +11845,7 @@
       <c r="AL107" s="5"/>
       <c r="AM107" s="6"/>
     </row>
-    <row r="108" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B108" s="4"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -11965,7 +11879,7 @@
       <c r="AL108" s="5"/>
       <c r="AM108" s="6"/>
     </row>
-    <row r="109" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -11999,7 +11913,7 @@
       <c r="AL109" s="5"/>
       <c r="AM109" s="6"/>
     </row>
-    <row r="110" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -12033,7 +11947,7 @@
       <c r="AL110" s="5"/>
       <c r="AM110" s="6"/>
     </row>
-    <row r="111" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -12067,7 +11981,7 @@
       <c r="AL111" s="5"/>
       <c r="AM111" s="6"/>
     </row>
-    <row r="112" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B112" s="4"/>
       <c r="C112" s="5"/>
       <c r="D112" s="7"/>
@@ -13733,131 +13647,131 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B2*128+B3*64+B4*32+B5*16+B6*8+B7*4+B8*2+B9,2),",")</f>
+        <f t="shared" ref="B11:I11" si="0">CONCATENATE("0x",DEC2HEX(B2*128+B3*64+B4*32+B5*16+B6*8+B7*4+B8*2+B9,2),",")</f>
         <v>0x7C,</v>
       </c>
       <c r="C11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C2*128+C3*64+C4*32+C5*16+C6*8+C7*4+C8*2+C9,2),",")</f>
+        <f t="shared" si="0"/>
         <v>0x82,</v>
       </c>
       <c r="D11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D2*128+D3*64+D4*32+D5*16+D6*8+D7*4+D8*2+D9,2),",")</f>
+        <f t="shared" si="0"/>
         <v>0x7C,</v>
       </c>
       <c r="E11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E2*128+E3*64+E4*32+E5*16+E6*8+E7*4+E8*2+E9,2),",")</f>
+        <f t="shared" si="0"/>
         <v>0x00,</v>
       </c>
       <c r="F11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F2*128+F3*64+F4*32+F5*16+F6*8+F7*4+F8*2+F9,2),",")</f>
+        <f t="shared" si="0"/>
         <v>0x42,</v>
       </c>
       <c r="G11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G2*128+G3*64+G4*32+G5*16+G6*8+G7*4+G8*2+G9,2),",")</f>
+        <f t="shared" si="0"/>
         <v>0xFE,</v>
       </c>
       <c r="H11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H2*128+H3*64+H4*32+H5*16+H6*8+H7*4+H8*2+H9,2),",")</f>
+        <f t="shared" si="0"/>
         <v>0x02,</v>
       </c>
       <c r="I11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I2*128+I3*64+I4*32+I5*16+I6*8+I7*4+I8*2+I9,2),",")</f>
+        <f t="shared" si="0"/>
         <v>0x00,</v>
       </c>
       <c r="L11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L2*128+L3*64+L4*32+L5*16+L6*8+L7*4+L8*2+L9,2),",")</f>
+        <f t="shared" ref="L11:S11" si="1">CONCATENATE("0x",DEC2HEX(L2*128+L3*64+L4*32+L5*16+L6*8+L7*4+L8*2+L9,2),",")</f>
         <v>0x8E,</v>
       </c>
       <c r="M11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M2*128+M3*64+M4*32+M5*16+M6*8+M7*4+M8*2+M9,2),",")</f>
+        <f t="shared" si="1"/>
         <v>0x92,</v>
       </c>
       <c r="N11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N2*128+N3*64+N4*32+N5*16+N6*8+N7*4+N8*2+N9,2),",")</f>
+        <f t="shared" si="1"/>
         <v>0x62,</v>
       </c>
       <c r="O11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O2*128+O3*64+O4*32+O5*16+O6*8+O7*4+O8*2+O9,2),",")</f>
+        <f t="shared" si="1"/>
         <v>0x00,</v>
       </c>
       <c r="P11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P2*128+P3*64+P4*32+P5*16+P6*8+P7*4+P8*2+P9,2),",")</f>
+        <f t="shared" si="1"/>
         <v>0x44,</v>
       </c>
       <c r="Q11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q2*128+Q3*64+Q4*32+Q5*16+Q6*8+Q7*4+Q8*2+Q9,2),",")</f>
+        <f t="shared" si="1"/>
         <v>0x92,</v>
       </c>
       <c r="R11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R2*128+R3*64+R4*32+R5*16+R6*8+R7*4+R8*2+R9,2),",")</f>
+        <f t="shared" si="1"/>
         <v>0x7C,</v>
       </c>
       <c r="S11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S2*128+S3*64+S4*32+S5*16+S6*8+S7*4+S8*2+S9,2),",")</f>
+        <f t="shared" si="1"/>
         <v>0x00,</v>
       </c>
       <c r="V11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V2*128+V3*64+V4*32+V5*16+V6*8+V7*4+V8*2+V9,2),",")</f>
+        <f t="shared" ref="V11:AC11" si="2">CONCATENATE("0x",DEC2HEX(V2*128+V3*64+V4*32+V5*16+V6*8+V7*4+V8*2+V9,2),",")</f>
         <v>0x70,</v>
       </c>
       <c r="W11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W2*128+W3*64+W4*32+W5*16+W6*8+W7*4+W8*2+W9,2),",")</f>
+        <f t="shared" si="2"/>
         <v>0x10,</v>
       </c>
       <c r="X11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X2*128+X3*64+X4*32+X5*16+X6*8+X7*4+X8*2+X9,2),",")</f>
+        <f t="shared" si="2"/>
         <v>0xFE,</v>
       </c>
       <c r="Y11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y2*128+Y3*64+Y4*32+Y5*16+Y6*8+Y7*4+Y8*2+Y9,2),",")</f>
+        <f t="shared" si="2"/>
         <v>0x00,</v>
       </c>
       <c r="Z11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z2*128+Z3*64+Z4*32+Z5*16+Z6*8+Z7*4+Z8*2+Z9,2),",")</f>
+        <f t="shared" si="2"/>
         <v>0xE2,</v>
       </c>
       <c r="AA11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA2*128+AA3*64+AA4*32+AA5*16+AA6*8+AA7*4+AA8*2+AA9,2),",")</f>
+        <f t="shared" si="2"/>
         <v>0x92,</v>
       </c>
       <c r="AB11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB2*128+AB3*64+AB4*32+AB5*16+AB6*8+AB7*4+AB8*2+AB9,2),",")</f>
+        <f t="shared" si="2"/>
         <v>0x8C,</v>
       </c>
       <c r="AC11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC2*128+AC3*64+AC4*32+AC5*16+AC6*8+AC7*4+AC8*2+AC9,2),",")</f>
+        <f t="shared" si="2"/>
         <v>0x00,</v>
       </c>
       <c r="AF11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF2*128+AF3*64+AF4*32+AF5*16+AF6*8+AF7*4+AF8*2+AF9,2),",")</f>
+        <f t="shared" ref="AF11:AM11" si="3">CONCATENATE("0x",DEC2HEX(AF2*128+AF3*64+AF4*32+AF5*16+AF6*8+AF7*4+AF8*2+AF9,2),",")</f>
         <v>0x7C,</v>
       </c>
       <c r="AG11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG2*128+AG3*64+AG4*32+AG5*16+AG6*8+AG7*4+AG8*2+AG9,2),",")</f>
+        <f t="shared" si="3"/>
         <v>0x92,</v>
       </c>
       <c r="AH11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH2*128+AH3*64+AH4*32+AH5*16+AH6*8+AH7*4+AH8*2+AH9,2),",")</f>
+        <f t="shared" si="3"/>
         <v>0x4C,</v>
       </c>
       <c r="AI11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI2*128+AI3*64+AI4*32+AI5*16+AI6*8+AI7*4+AI8*2+AI9,2),",")</f>
+        <f t="shared" si="3"/>
         <v>0x00,</v>
       </c>
       <c r="AJ11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ2*128+AJ3*64+AJ4*32+AJ5*16+AJ6*8+AJ7*4+AJ8*2+AJ9,2),",")</f>
+        <f t="shared" si="3"/>
         <v>0x80,</v>
       </c>
       <c r="AK11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK2*128+AK3*64+AK4*32+AK5*16+AK6*8+AK7*4+AK8*2+AK9,2),",")</f>
+        <f t="shared" si="3"/>
         <v>0x9E,</v>
       </c>
       <c r="AL11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL2*128+AL3*64+AL4*32+AL5*16+AL6*8+AL7*4+AL8*2+AL9,2),",")</f>
+        <f t="shared" si="3"/>
         <v>0xE0,</v>
       </c>
       <c r="AM11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM2*128+AM3*64+AM4*32+AM5*16+AM6*8+AM7*4+AM8*2+AM9,2),",")</f>
+        <f t="shared" si="3"/>
         <v>0x00,</v>
       </c>
     </row>
@@ -14382,131 +14296,131 @@
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B15*128+B16*64+B17*32+B18*16+B19*8+B20*4+B21*2+B22,2),",")</f>
+        <f t="shared" ref="B24:I24" si="4">CONCATENATE("0x",DEC2HEX(B15*128+B16*64+B17*32+B18*16+B19*8+B20*4+B21*2+B22,2),",")</f>
         <v>0x6C,</v>
       </c>
       <c r="C24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C15*128+C16*64+C17*32+C18*16+C19*8+C20*4+C21*2+C22,2),",")</f>
+        <f t="shared" si="4"/>
         <v>0x92,</v>
       </c>
       <c r="D24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D15*128+D16*64+D17*32+D18*16+D19*8+D20*4+D21*2+D22,2),",")</f>
+        <f t="shared" si="4"/>
         <v>0x6C,</v>
       </c>
       <c r="E24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E15*128+E16*64+E17*32+E18*16+E19*8+E20*4+E21*2+E22,2),",")</f>
+        <f t="shared" si="4"/>
         <v>0x00,</v>
       </c>
       <c r="F24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F15*128+F16*64+F17*32+F18*16+F19*8+F20*4+F21*2+F22,2),",")</f>
+        <f t="shared" si="4"/>
         <v>0x60,</v>
       </c>
       <c r="G24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G15*128+G16*64+G17*32+G18*16+G19*8+G20*4+G21*2+G22,2),",")</f>
+        <f t="shared" si="4"/>
         <v>0x90,</v>
       </c>
       <c r="H24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H15*128+H16*64+H17*32+H18*16+H19*8+H20*4+H21*2+H22,2),",")</f>
+        <f t="shared" si="4"/>
         <v>0xFE,</v>
       </c>
       <c r="I24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I15*128+I16*64+I17*32+I18*16+I19*8+I20*4+I21*2+I22,2),",")</f>
+        <f t="shared" si="4"/>
         <v>0x00,</v>
       </c>
       <c r="L24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L15*128+L16*64+L17*32+L18*16+L19*8+L20*4+L21*2+L22,2),",")</f>
+        <f t="shared" ref="L24:S24" si="5">CONCATENATE("0x",DEC2HEX(L15*128+L16*64+L17*32+L18*16+L19*8+L20*4+L21*2+L22,2),",")</f>
         <v>0x7E,</v>
       </c>
       <c r="M24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M15*128+M16*64+M17*32+M18*16+M19*8+M20*4+M21*2+M22,2),",")</f>
+        <f t="shared" si="5"/>
         <v>0x90,</v>
       </c>
       <c r="N24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N15*128+N16*64+N17*32+N18*16+N19*8+N20*4+N21*2+N22,2),",")</f>
+        <f t="shared" si="5"/>
         <v>0x7E,</v>
       </c>
       <c r="O24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O15*128+O16*64+O17*32+O18*16+O19*8+O20*4+O21*2+O22,2),",")</f>
+        <f t="shared" si="5"/>
         <v>0x00,</v>
       </c>
       <c r="P24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P15*128+P16*64+P17*32+P18*16+P19*8+P20*4+P21*2+P22,2),",")</f>
+        <f t="shared" si="5"/>
         <v>0x0E,</v>
       </c>
       <c r="Q24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q15*128+Q16*64+Q17*32+Q18*16+Q19*8+Q20*4+Q21*2+Q22,2),",")</f>
+        <f t="shared" si="5"/>
         <v>0x2A,</v>
       </c>
       <c r="R24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R15*128+R16*64+R17*32+R18*16+R19*8+R20*4+R21*2+R22,2),",")</f>
+        <f t="shared" si="5"/>
         <v>0x3E,</v>
       </c>
       <c r="S24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S15*128+S16*64+S17*32+S18*16+S19*8+S20*4+S21*2+S22,2),",")</f>
+        <f t="shared" si="5"/>
         <v>0x00,</v>
       </c>
       <c r="V24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V15*128+V16*64+V17*32+V18*16+V19*8+V20*4+V21*2+V22,2),",")</f>
+        <f t="shared" ref="V24:AC24" si="6">CONCATENATE("0x",DEC2HEX(V15*128+V16*64+V17*32+V18*16+V19*8+V20*4+V21*2+V22,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="W24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W15*128+W16*64+W17*32+W18*16+W19*8+W20*4+W21*2+W22,2),",")</f>
+        <f t="shared" si="6"/>
         <v>0x92,</v>
       </c>
       <c r="X24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X15*128+X16*64+X17*32+X18*16+X19*8+X20*4+X21*2+X22,2),",")</f>
+        <f t="shared" si="6"/>
         <v>0x6C,</v>
       </c>
       <c r="Y24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y15*128+Y16*64+Y17*32+Y18*16+Y19*8+Y20*4+Y21*2+Y22,2),",")</f>
+        <f t="shared" si="6"/>
         <v>0x00,</v>
       </c>
       <c r="Z24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z15*128+Z16*64+Z17*32+Z18*16+Z19*8+Z20*4+Z21*2+Z22,2),",")</f>
+        <f t="shared" si="6"/>
         <v>0xFE,</v>
       </c>
       <c r="AA24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA15*128+AA16*64+AA17*32+AA18*16+AA19*8+AA20*4+AA21*2+AA22,2),",")</f>
+        <f t="shared" si="6"/>
         <v>0x12,</v>
       </c>
       <c r="AB24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB15*128+AB16*64+AB17*32+AB18*16+AB19*8+AB20*4+AB21*2+AB22,2),",")</f>
+        <f t="shared" si="6"/>
         <v>0x1E,</v>
       </c>
       <c r="AC24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC15*128+AC16*64+AC17*32+AC18*16+AC19*8+AC20*4+AC21*2+AC22,2),",")</f>
+        <f t="shared" si="6"/>
         <v>0x00,</v>
       </c>
       <c r="AF24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF15*128+AF16*64+AF17*32+AF18*16+AF19*8+AF20*4+AF21*2+AF22,2),",")</f>
+        <f t="shared" ref="AF24:AM24" si="7">CONCATENATE("0x",DEC2HEX(AF15*128+AF16*64+AF17*32+AF18*16+AF19*8+AF20*4+AF21*2+AF22,2),",")</f>
         <v>0x7C,</v>
       </c>
       <c r="AG24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG15*128+AG16*64+AG17*32+AG18*16+AG19*8+AG20*4+AG21*2+AG22,2),",")</f>
+        <f t="shared" si="7"/>
         <v>0x82,</v>
       </c>
       <c r="AH24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH15*128+AH16*64+AH17*32+AH18*16+AH19*8+AH20*4+AH21*2+AH22,2),",")</f>
+        <f t="shared" si="7"/>
         <v>0x82,</v>
       </c>
       <c r="AI24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI15*128+AI16*64+AI17*32+AI18*16+AI19*8+AI20*4+AI21*2+AI22,2),",")</f>
+        <f t="shared" si="7"/>
         <v>0x00,</v>
       </c>
       <c r="AJ24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ15*128+AJ16*64+AJ17*32+AJ18*16+AJ19*8+AJ20*4+AJ21*2+AJ22,2),",")</f>
+        <f t="shared" si="7"/>
         <v>0x1C,</v>
       </c>
       <c r="AK24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK15*128+AK16*64+AK17*32+AK18*16+AK19*8+AK20*4+AK21*2+AK22,2),",")</f>
+        <f t="shared" si="7"/>
         <v>0x22,</v>
       </c>
       <c r="AL24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL15*128+AL16*64+AL17*32+AL18*16+AL19*8+AL20*4+AL21*2+AL22,2),",")</f>
+        <f t="shared" si="7"/>
         <v>0x22,</v>
       </c>
       <c r="AM24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM15*128+AM16*64+AM17*32+AM18*16+AM19*8+AM20*4+AM21*2+AM22,2),",")</f>
+        <f t="shared" si="7"/>
         <v>0x00,</v>
       </c>
     </row>
@@ -15033,131 +14947,131 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B28*128+B29*64+B30*32+B31*16+B32*8+B33*4+B34*2+B35,2),",")</f>
+        <f t="shared" ref="B37:I37" si="8">CONCATENATE("0x",DEC2HEX(B28*128+B29*64+B30*32+B31*16+B32*8+B33*4+B34*2+B35,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="C37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C28*128+C29*64+C30*32+C31*16+C32*8+C33*4+C34*2+C35,2),",")</f>
+        <f t="shared" si="8"/>
         <v>0x82,</v>
       </c>
       <c r="D37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D28*128+D29*64+D30*32+D31*16+D32*8+D33*4+D34*2+D35,2),",")</f>
+        <f t="shared" si="8"/>
         <v>0x7C,</v>
       </c>
       <c r="E37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E28*128+E29*64+E30*32+E31*16+E32*8+E33*4+E34*2+E35,2),",")</f>
+        <f t="shared" si="8"/>
         <v>0x00,</v>
       </c>
       <c r="F37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F28*128+F29*64+F30*32+F31*16+F32*8+F33*4+F34*2+F35,2),",")</f>
+        <f t="shared" si="8"/>
         <v>0x1E,</v>
       </c>
       <c r="G37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G28*128+G29*64+G30*32+G31*16+G32*8+G33*4+G34*2+G35,2),",")</f>
+        <f t="shared" si="8"/>
         <v>0x12,</v>
       </c>
       <c r="H37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H28*128+H29*64+H30*32+H31*16+H32*8+H33*4+H34*2+H35,2),",")</f>
+        <f t="shared" si="8"/>
         <v>0xFE,</v>
       </c>
       <c r="I37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I28*128+I29*64+I30*32+I31*16+I32*8+I33*4+I34*2+I35,2),",")</f>
+        <f t="shared" si="8"/>
         <v>0x00,</v>
       </c>
       <c r="L37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L28*128+L29*64+L30*32+L31*16+L32*8+L33*4+L34*2+L35,2),",")</f>
+        <f t="shared" ref="L37:S37" si="9">CONCATENATE("0x",DEC2HEX(L28*128+L29*64+L30*32+L31*16+L32*8+L33*4+L34*2+L35,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="M37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M28*128+M29*64+M30*32+M31*16+M32*8+M33*4+M34*2+M35,2),",")</f>
+        <f t="shared" si="9"/>
         <v>0x92,</v>
       </c>
       <c r="N37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N28*128+N29*64+N30*32+N31*16+N32*8+N33*4+N34*2+N35,2),",")</f>
+        <f t="shared" si="9"/>
         <v>0x82,</v>
       </c>
       <c r="O37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O28*128+O29*64+O30*32+O31*16+O32*8+O33*4+O34*2+O35,2),",")</f>
+        <f t="shared" si="9"/>
         <v>0x00,</v>
       </c>
       <c r="P37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P28*128+P29*64+P30*32+P31*16+P32*8+P33*4+P34*2+P35,2),",")</f>
+        <f t="shared" si="9"/>
         <v>0x3E,</v>
       </c>
       <c r="Q37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q28*128+Q29*64+Q30*32+Q31*16+Q32*8+Q33*4+Q34*2+Q35,2),",")</f>
+        <f t="shared" si="9"/>
         <v>0x2A,</v>
       </c>
       <c r="R37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R28*128+R29*64+R30*32+R31*16+R32*8+R33*4+R34*2+R35,2),",")</f>
+        <f t="shared" si="9"/>
         <v>0x1A,</v>
       </c>
       <c r="S37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S28*128+S29*64+S30*32+S31*16+S32*8+S33*4+S34*2+S35,2),",")</f>
+        <f t="shared" si="9"/>
         <v>0x00,</v>
       </c>
       <c r="V37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V28*128+V29*64+V30*32+V31*16+V32*8+V33*4+V34*2+V35,2),",")</f>
+        <f t="shared" ref="V37:AC37" si="10">CONCATENATE("0x",DEC2HEX(V28*128+V29*64+V30*32+V31*16+V32*8+V33*4+V34*2+V35,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="W37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W28*128+W29*64+W30*32+W31*16+W32*8+W33*4+W34*2+W35,2),",")</f>
+        <f t="shared" si="10"/>
         <v>0x90,</v>
       </c>
       <c r="X37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X28*128+X29*64+X30*32+X31*16+X32*8+X33*4+X34*2+X35,2),",")</f>
+        <f t="shared" si="10"/>
         <v>0x80,</v>
       </c>
       <c r="Y37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y28*128+Y29*64+Y30*32+Y31*16+Y32*8+Y33*4+Y34*2+Y35,2),",")</f>
+        <f t="shared" si="10"/>
         <v>0x00,</v>
       </c>
       <c r="Z37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z28*128+Z29*64+Z30*32+Z31*16+Z32*8+Z33*4+Z34*2+Z35,2),",")</f>
+        <f t="shared" si="10"/>
         <v>0x7E,</v>
       </c>
       <c r="AA37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA28*128+AA29*64+AA30*32+AA31*16+AA32*8+AA33*4+AA34*2+AA35,2),",")</f>
+        <f t="shared" si="10"/>
         <v>0x90,</v>
       </c>
       <c r="AB37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB28*128+AB29*64+AB30*32+AB31*16+AB32*8+AB33*4+AB34*2+AB35,2),",")</f>
+        <f t="shared" si="10"/>
         <v>0x80,</v>
       </c>
       <c r="AC37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC28*128+AC29*64+AC30*32+AC31*16+AC32*8+AC33*4+AC34*2+AC35,2),",")</f>
+        <f t="shared" si="10"/>
         <v>0x00,</v>
       </c>
       <c r="AF37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF28*128+AF29*64+AF30*32+AF31*16+AF32*8+AF33*4+AF34*2+AF35,2),",")</f>
+        <f t="shared" ref="AF37:AM37" si="11">CONCATENATE("0x",DEC2HEX(AF28*128+AF29*64+AF30*32+AF31*16+AF32*8+AF33*4+AF34*2+AF35,2),",")</f>
         <v>0x7C,</v>
       </c>
       <c r="AG37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG28*128+AG29*64+AG30*32+AG31*16+AG32*8+AG33*4+AG34*2+AG35,2),",")</f>
+        <f t="shared" si="11"/>
         <v>0x82,</v>
       </c>
       <c r="AH37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH28*128+AH29*64+AH30*32+AH31*16+AH32*8+AH33*4+AH34*2+AH35,2),",")</f>
+        <f t="shared" si="11"/>
         <v>0x8E,</v>
       </c>
       <c r="AI37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI28*128+AI29*64+AI30*32+AI31*16+AI32*8+AI33*4+AI34*2+AI35,2),",")</f>
+        <f t="shared" si="11"/>
         <v>0x00,</v>
       </c>
       <c r="AJ37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ28*128+AJ29*64+AJ30*32+AJ31*16+AJ32*8+AJ33*4+AJ34*2+AJ35,2),",")</f>
+        <f t="shared" si="11"/>
         <v>0x1A,</v>
       </c>
       <c r="AK37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK28*128+AK29*64+AK30*32+AK31*16+AK32*8+AK33*4+AK34*2+AK35,2),",")</f>
+        <f t="shared" si="11"/>
         <v>0x2A,</v>
       </c>
       <c r="AL37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL28*128+AL29*64+AL30*32+AL31*16+AL32*8+AL33*4+AL34*2+AL35,2),",")</f>
+        <f t="shared" si="11"/>
         <v>0x3E,</v>
       </c>
       <c r="AM37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM28*128+AM29*64+AM30*32+AM31*16+AM32*8+AM33*4+AM34*2+AM35,2),",")</f>
+        <f t="shared" si="11"/>
         <v>0x00,</v>
       </c>
     </row>
@@ -15668,131 +15582,131 @@
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B41*128+B42*64+B43*32+B44*16+B45*8+B46*4+B47*2+B48,2),",")</f>
+        <f t="shared" ref="B50:I50" si="12">CONCATENATE("0x",DEC2HEX(B41*128+B42*64+B43*32+B44*16+B45*8+B46*4+B47*2+B48,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="C50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C41*128+C42*64+C43*32+C44*16+C45*8+C46*4+C47*2+C48,2),",")</f>
+        <f t="shared" si="12"/>
         <v>0x10,</v>
       </c>
       <c r="D50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D41*128+D42*64+D43*32+D44*16+D45*8+D46*4+D47*2+D48,2),",")</f>
+        <f t="shared" si="12"/>
         <v>0xFE,</v>
       </c>
       <c r="E50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E41*128+E42*64+E43*32+E44*16+E45*8+E46*4+E47*2+E48,2),",")</f>
+        <f t="shared" si="12"/>
         <v>0x00,</v>
       </c>
       <c r="F50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F41*128+F42*64+F43*32+F44*16+F45*8+F46*4+F47*2+F48,2),",")</f>
+        <f t="shared" si="12"/>
         <v>0xFE,</v>
       </c>
       <c r="G50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G41*128+G42*64+G43*32+G44*16+G45*8+G46*4+G47*2+G48,2),",")</f>
+        <f t="shared" si="12"/>
         <v>0x10,</v>
       </c>
       <c r="H50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H41*128+H42*64+H43*32+H44*16+H45*8+H46*4+H47*2+H48,2),",")</f>
+        <f t="shared" si="12"/>
         <v>0x0E,</v>
       </c>
       <c r="I50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I41*128+I42*64+I43*32+I44*16+I45*8+I46*4+I47*2+I48,2),",")</f>
+        <f t="shared" si="12"/>
         <v>0x00,</v>
       </c>
       <c r="L50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L41*128+L42*64+L43*32+L44*16+L45*8+L46*4+L47*2+L48,2),",")</f>
+        <f t="shared" ref="L50:S50" si="13">CONCATENATE("0x",DEC2HEX(L41*128+L42*64+L43*32+L44*16+L45*8+L46*4+L47*2+L48,2),",")</f>
         <v>0x82,</v>
       </c>
       <c r="M50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M41*128+M42*64+M43*32+M44*16+M45*8+M46*4+M47*2+M48,2),",")</f>
+        <f t="shared" si="13"/>
         <v>0xFE,</v>
       </c>
       <c r="N50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N41*128+N42*64+N43*32+N44*16+N45*8+N46*4+N47*2+N48,2),",")</f>
+        <f t="shared" si="13"/>
         <v>0x82,</v>
       </c>
       <c r="O50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O41*128+O42*64+O43*32+O44*16+O45*8+O46*4+O47*2+O48,2),",")</f>
+        <f t="shared" si="13"/>
         <v>0x00,</v>
       </c>
       <c r="P50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P41*128+P42*64+P43*32+P44*16+P45*8+P46*4+P47*2+P48,2),",")</f>
+        <f t="shared" si="13"/>
         <v>0x00,</v>
       </c>
       <c r="Q50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q41*128+Q42*64+Q43*32+Q44*16+Q45*8+Q46*4+Q47*2+Q48,2),",")</f>
+        <f t="shared" si="13"/>
         <v>0x5E,</v>
       </c>
       <c r="R50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R41*128+R42*64+R43*32+R44*16+R45*8+R46*4+R47*2+R48,2),",")</f>
+        <f t="shared" si="13"/>
         <v>0x00,</v>
       </c>
       <c r="S50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S41*128+S42*64+S43*32+S44*16+S45*8+S46*4+S47*2+S48,2),",")</f>
+        <f t="shared" si="13"/>
         <v>0x00,</v>
       </c>
       <c r="V50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V41*128+V42*64+V43*32+V44*16+V45*8+V46*4+V47*2+V48,2),",")</f>
+        <f t="shared" ref="V50:AC50" si="14">CONCATENATE("0x",DEC2HEX(V41*128+V42*64+V43*32+V44*16+V45*8+V46*4+V47*2+V48,2),",")</f>
         <v>0x82,</v>
       </c>
       <c r="W50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W41*128+W42*64+W43*32+W44*16+W45*8+W46*4+W47*2+W48,2),",")</f>
+        <f t="shared" si="14"/>
         <v>0xFC,</v>
       </c>
       <c r="X50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X41*128+X42*64+X43*32+X44*16+X45*8+X46*4+X47*2+X48,2),",")</f>
+        <f t="shared" si="14"/>
         <v>0x80,</v>
       </c>
       <c r="Y50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y41*128+Y42*64+Y43*32+Y44*16+Y45*8+Y46*4+Y47*2+Y48,2),",")</f>
+        <f t="shared" si="14"/>
         <v>0x00,</v>
       </c>
       <c r="Z50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z41*128+Z42*64+Z43*32+Z44*16+Z45*8+Z46*4+Z47*2+Z48,2),",")</f>
+        <f t="shared" si="14"/>
         <v>0x02,</v>
       </c>
       <c r="AA50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA41*128+AA42*64+AA43*32+AA44*16+AA45*8+AA46*4+AA47*2+AA48,2),",")</f>
+        <f t="shared" si="14"/>
         <v>0x5E,</v>
       </c>
       <c r="AB50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB41*128+AB42*64+AB43*32+AB44*16+AB45*8+AB46*4+AB47*2+AB48,2),",")</f>
+        <f t="shared" si="14"/>
         <v>0x00,</v>
       </c>
       <c r="AC50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC41*128+AC42*64+AC43*32+AC44*16+AC45*8+AC46*4+AC47*2+AC48,2),",")</f>
+        <f t="shared" si="14"/>
         <v>0x00,</v>
       </c>
       <c r="AF50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF41*128+AF42*64+AF43*32+AF44*16+AF45*8+AF46*4+AF47*2+AF48,2),",")</f>
+        <f t="shared" ref="AF50:AM50" si="15">CONCATENATE("0x",DEC2HEX(AF41*128+AF42*64+AF43*32+AF44*16+AF45*8+AF46*4+AF47*2+AF48,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="AG50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG41*128+AG42*64+AG43*32+AG44*16+AG45*8+AG46*4+AG47*2+AG48,2),",")</f>
+        <f t="shared" si="15"/>
         <v>0x10,</v>
       </c>
       <c r="AH50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH41*128+AH42*64+AH43*32+AH44*16+AH45*8+AH46*4+AH47*2+AH48,2),",")</f>
+        <f t="shared" si="15"/>
         <v>0xEE,</v>
       </c>
       <c r="AI50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI41*128+AI42*64+AI43*32+AI44*16+AI45*8+AI46*4+AI47*2+AI48,2),",")</f>
+        <f t="shared" si="15"/>
         <v>0x00,</v>
       </c>
       <c r="AJ50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ41*128+AJ42*64+AJ43*32+AJ44*16+AJ45*8+AJ46*4+AJ47*2+AJ48,2),",")</f>
+        <f t="shared" si="15"/>
         <v>0xFE,</v>
       </c>
       <c r="AK50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK41*128+AK42*64+AK43*32+AK44*16+AK45*8+AK46*4+AK47*2+AK48,2),",")</f>
+        <f t="shared" si="15"/>
         <v>0x10,</v>
       </c>
       <c r="AL50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL41*128+AL42*64+AL43*32+AL44*16+AL45*8+AL46*4+AL47*2+AL48,2),",")</f>
+        <f t="shared" si="15"/>
         <v>0x2E,</v>
       </c>
       <c r="AM50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM41*128+AM42*64+AM43*32+AM44*16+AM45*8+AM46*4+AM47*2+AM48,2),",")</f>
+        <f t="shared" si="15"/>
         <v>0x00,</v>
       </c>
     </row>
@@ -16317,131 +16231,131 @@
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B54*128+B55*64+B56*32+B57*16+B58*8+B59*4+B60*2+B61,2),",")</f>
+        <f t="shared" ref="B63:I63" si="16">CONCATENATE("0x",DEC2HEX(B54*128+B55*64+B56*32+B57*16+B58*8+B59*4+B60*2+B61,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="C63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C54*128+C55*64+C56*32+C57*16+C58*8+C59*4+C60*2+C61,2),",")</f>
+        <f t="shared" si="16"/>
         <v>0x02,</v>
       </c>
       <c r="D63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D54*128+D55*64+D56*32+D57*16+D58*8+D59*4+D60*2+D61,2),",")</f>
+        <f t="shared" si="16"/>
         <v>0x02,</v>
       </c>
       <c r="E63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E54*128+E55*64+E56*32+E57*16+E58*8+E59*4+E60*2+E61,2),",")</f>
+        <f t="shared" si="16"/>
         <v>0x00,</v>
       </c>
       <c r="F63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F54*128+F55*64+F56*32+F57*16+F58*8+F59*4+F60*2+F61,2),",")</f>
+        <f t="shared" si="16"/>
         <v>0x00,</v>
       </c>
       <c r="G63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G54*128+G55*64+G56*32+G57*16+G58*8+G59*4+G60*2+G61,2),",")</f>
+        <f t="shared" si="16"/>
         <v>0xFE,</v>
       </c>
       <c r="H63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H54*128+H55*64+H56*32+H57*16+H58*8+H59*4+H60*2+H61,2),",")</f>
+        <f t="shared" si="16"/>
         <v>0x00,</v>
       </c>
       <c r="I63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I54*128+I55*64+I56*32+I57*16+I58*8+I59*4+I60*2+I61,2),",")</f>
+        <f t="shared" si="16"/>
         <v>0x00,</v>
       </c>
       <c r="L63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L54*128+L55*64+L56*32+L57*16+L58*8+L59*4+L60*2+L61,2),",")</f>
+        <f t="shared" ref="L63:S63" si="17">CONCATENATE("0x",DEC2HEX(L54*128+L55*64+L56*32+L57*16+L58*8+L59*4+L60*2+L61,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="M63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M54*128+M55*64+M56*32+M57*16+M58*8+M59*4+M60*2+M61,2),",")</f>
+        <f t="shared" si="17"/>
         <v>0x60,</v>
       </c>
       <c r="N63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N54*128+N55*64+N56*32+N57*16+N58*8+N59*4+N60*2+N61,2),",")</f>
+        <f t="shared" si="17"/>
         <v>0xFE,</v>
       </c>
       <c r="O63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O54*128+O55*64+O56*32+O57*16+O58*8+O59*4+O60*2+O61,2),",")</f>
+        <f t="shared" si="17"/>
         <v>0x00,</v>
       </c>
       <c r="P63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P54*128+P55*64+P56*32+P57*16+P58*8+P59*4+P60*2+P61,2),",")</f>
+        <f t="shared" si="17"/>
         <v>0x3E,</v>
       </c>
       <c r="Q63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q54*128+Q55*64+Q56*32+Q57*16+Q58*8+Q59*4+Q60*2+Q61,2),",")</f>
+        <f t="shared" si="17"/>
         <v>0x38,</v>
       </c>
       <c r="R63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R54*128+R55*64+R56*32+R57*16+R58*8+R59*4+R60*2+R61,2),",")</f>
+        <f t="shared" si="17"/>
         <v>0x1E,</v>
       </c>
       <c r="S63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S54*128+S55*64+S56*32+S57*16+S58*8+S59*4+S60*2+S61,2),",")</f>
+        <f t="shared" si="17"/>
         <v>0x00,</v>
       </c>
       <c r="V63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V54*128+V55*64+V56*32+V57*16+V58*8+V59*4+V60*2+V61,2),",")</f>
+        <f t="shared" ref="V63:AC63" si="18">CONCATENATE("0x",DEC2HEX(V54*128+V55*64+V56*32+V57*16+V58*8+V59*4+V60*2+V61,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="W63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W54*128+W55*64+W56*32+W57*16+W58*8+W59*4+W60*2+W61,2),",")</f>
+        <f t="shared" si="18"/>
         <v>0x30,</v>
       </c>
       <c r="X63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X54*128+X55*64+X56*32+X57*16+X58*8+X59*4+X60*2+X61,2),",")</f>
+        <f t="shared" si="18"/>
         <v>0xFE,</v>
       </c>
       <c r="Y63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y54*128+Y55*64+Y56*32+Y57*16+Y58*8+Y59*4+Y60*2+Y61,2),",")</f>
+        <f t="shared" si="18"/>
         <v>0x00,</v>
       </c>
       <c r="Z63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z54*128+Z55*64+Z56*32+Z57*16+Z58*8+Z59*4+Z60*2+Z61,2),",")</f>
+        <f t="shared" si="18"/>
         <v>0x3E,</v>
       </c>
       <c r="AA63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA54*128+AA55*64+AA56*32+AA57*16+AA58*8+AA59*4+AA60*2+AA61,2),",")</f>
+        <f t="shared" si="18"/>
         <v>0x20,</v>
       </c>
       <c r="AB63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB54*128+AB55*64+AB56*32+AB57*16+AB58*8+AB59*4+AB60*2+AB61,2),",")</f>
+        <f t="shared" si="18"/>
         <v>0x1E,</v>
       </c>
       <c r="AC63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC54*128+AC55*64+AC56*32+AC57*16+AC58*8+AC59*4+AC60*2+AC61,2),",")</f>
+        <f t="shared" si="18"/>
         <v>0x00,</v>
       </c>
       <c r="AF63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF54*128+AF55*64+AF56*32+AF57*16+AF58*8+AF59*4+AF60*2+AF61,2),",")</f>
+        <f t="shared" ref="AF63:AM63" si="19">CONCATENATE("0x",DEC2HEX(AF54*128+AF55*64+AF56*32+AF57*16+AF58*8+AF59*4+AF60*2+AF61,2),",")</f>
         <v>0x7C,</v>
       </c>
       <c r="AG63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG54*128+AG55*64+AG56*32+AG57*16+AG58*8+AG59*4+AG60*2+AG61,2),",")</f>
+        <f t="shared" si="19"/>
         <v>0x82,</v>
       </c>
       <c r="AH63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH54*128+AH55*64+AH56*32+AH57*16+AH58*8+AH59*4+AH60*2+AH61,2),",")</f>
+        <f t="shared" si="19"/>
         <v>0x7C,</v>
       </c>
       <c r="AI63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI54*128+AI55*64+AI56*32+AI57*16+AI58*8+AI59*4+AI60*2+AI61,2),",")</f>
+        <f t="shared" si="19"/>
         <v>0x00,</v>
       </c>
       <c r="AJ63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ54*128+AJ55*64+AJ56*32+AJ57*16+AJ58*8+AJ59*4+AJ60*2+AJ61,2),",")</f>
+        <f t="shared" si="19"/>
         <v>0x1C,</v>
       </c>
       <c r="AK63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK54*128+AK55*64+AK56*32+AK57*16+AK58*8+AK59*4+AK60*2+AK61,2),",")</f>
+        <f t="shared" si="19"/>
         <v>0x22,</v>
       </c>
       <c r="AL63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL54*128+AL55*64+AL56*32+AL57*16+AL58*8+AL59*4+AL60*2+AL61,2),",")</f>
+        <f t="shared" si="19"/>
         <v>0x1C,</v>
       </c>
       <c r="AM63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM54*128+AM55*64+AM56*32+AM57*16+AM58*8+AM59*4+AM60*2+AM61,2),",")</f>
+        <f t="shared" si="19"/>
         <v>0x00,</v>
       </c>
     </row>
@@ -16948,131 +16862,131 @@
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B67*128+B68*64+B69*32+B70*16+B71*8+B72*4+B73*2+B74,2),",")</f>
+        <f t="shared" ref="B76:I76" si="20">CONCATENATE("0x",DEC2HEX(B67*128+B68*64+B69*32+B70*16+B71*8+B72*4+B73*2+B74,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="C76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C67*128+C68*64+C69*32+C70*16+C71*8+C72*4+C73*2+C74,2),",")</f>
+        <f t="shared" si="20"/>
         <v>0x90,</v>
       </c>
       <c r="D76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D67*128+D68*64+D69*32+D70*16+D71*8+D72*4+D73*2+D74,2),",")</f>
+        <f t="shared" si="20"/>
         <v>0x60,</v>
       </c>
       <c r="E76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E67*128+E68*64+E69*32+E70*16+E71*8+E72*4+E73*2+E74,2),",")</f>
+        <f t="shared" si="20"/>
         <v>0x00,</v>
       </c>
       <c r="F76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F67*128+F68*64+F69*32+F70*16+F71*8+F72*4+F73*2+F74,2),",")</f>
+        <f t="shared" si="20"/>
         <v>0x3E,</v>
       </c>
       <c r="G76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G67*128+G68*64+G69*32+G70*16+G71*8+G72*4+G73*2+G74,2),",")</f>
+        <f t="shared" si="20"/>
         <v>0x28,</v>
       </c>
       <c r="H76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H67*128+H68*64+H69*32+H70*16+H71*8+H72*4+H73*2+H74,2),",")</f>
+        <f t="shared" si="20"/>
         <v>0x18,</v>
       </c>
       <c r="I76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I67*128+I68*64+I69*32+I70*16+I71*8+I72*4+I73*2+I74,2),",")</f>
+        <f t="shared" si="20"/>
         <v>0x00,</v>
       </c>
       <c r="L76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L67*128+L68*64+L69*32+L70*16+L71*8+L72*4+L73*2+L74,2),",")</f>
+        <f t="shared" ref="L76:S76" si="21">CONCATENATE("0x",DEC2HEX(L67*128+L68*64+L69*32+L70*16+L71*8+L72*4+L73*2+L74,2),",")</f>
         <v>0xFC,</v>
       </c>
       <c r="M76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M67*128+M68*64+M69*32+M70*16+M71*8+M72*4+M73*2+M74,2),",")</f>
+        <f t="shared" si="21"/>
         <v>0x84,</v>
       </c>
       <c r="N76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N67*128+N68*64+N69*32+N70*16+N71*8+N72*4+N73*2+N74,2),",")</f>
+        <f t="shared" si="21"/>
         <v>0xFE,</v>
       </c>
       <c r="O76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O67*128+O68*64+O69*32+O70*16+O71*8+O72*4+O73*2+O74,2),",")</f>
+        <f t="shared" si="21"/>
         <v>0x00,</v>
       </c>
       <c r="P76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P67*128+P68*64+P69*32+P70*16+P71*8+P72*4+P73*2+P74,2),",")</f>
+        <f t="shared" si="21"/>
         <v>0x18,</v>
       </c>
       <c r="Q76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q67*128+Q68*64+Q69*32+Q70*16+Q71*8+Q72*4+Q73*2+Q74,2),",")</f>
+        <f t="shared" si="21"/>
         <v>0x28,</v>
       </c>
       <c r="R76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R67*128+R68*64+R69*32+R70*16+R71*8+R72*4+R73*2+R74,2),",")</f>
+        <f t="shared" si="21"/>
         <v>0x3E,</v>
       </c>
       <c r="S76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S67*128+S68*64+S69*32+S70*16+S71*8+S72*4+S73*2+S74,2),",")</f>
+        <f t="shared" si="21"/>
         <v>0x00,</v>
       </c>
       <c r="V76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V67*128+V68*64+V69*32+V70*16+V71*8+V72*4+V73*2+V74,2),",")</f>
+        <f t="shared" ref="V76:AC76" si="22">CONCATENATE("0x",DEC2HEX(V67*128+V68*64+V69*32+V70*16+V71*8+V72*4+V73*2+V74,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="W76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W67*128+W68*64+W69*32+W70*16+W71*8+W72*4+W73*2+W74,2),",")</f>
+        <f t="shared" si="22"/>
         <v>0x90,</v>
       </c>
       <c r="X76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X67*128+X68*64+X69*32+X70*16+X71*8+X72*4+X73*2+X74,2),",")</f>
+        <f t="shared" si="22"/>
         <v>0x6E,</v>
       </c>
       <c r="Y76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y67*128+Y68*64+Y69*32+Y70*16+Y71*8+Y72*4+Y73*2+Y74,2),",")</f>
+        <f t="shared" si="22"/>
         <v>0x00,</v>
       </c>
       <c r="Z76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z67*128+Z68*64+Z69*32+Z70*16+Z71*8+Z72*4+Z73*2+Z74,2),",")</f>
+        <f t="shared" si="22"/>
         <v>0x3E,</v>
       </c>
       <c r="AA76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA67*128+AA68*64+AA69*32+AA70*16+AA71*8+AA72*4+AA73*2+AA74,2),",")</f>
+        <f t="shared" si="22"/>
         <v>0x20,</v>
       </c>
       <c r="AB76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB67*128+AB68*64+AB69*32+AB70*16+AB71*8+AB72*4+AB73*2+AB74,2),",")</f>
+        <f t="shared" si="22"/>
         <v>0x10,</v>
       </c>
       <c r="AC76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC67*128+AC68*64+AC69*32+AC70*16+AC71*8+AC72*4+AC73*2+AC74,2),",")</f>
+        <f t="shared" si="22"/>
         <v>0x00,</v>
       </c>
       <c r="AF76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF67*128+AF68*64+AF69*32+AF70*16+AF71*8+AF72*4+AF73*2+AF74,2),",")</f>
+        <f t="shared" ref="AF76:AM76" si="23">CONCATENATE("0x",DEC2HEX(AF67*128+AF68*64+AF69*32+AF70*16+AF71*8+AF72*4+AF73*2+AF74,2),",")</f>
         <v>0x62,</v>
       </c>
       <c r="AG76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG67*128+AG68*64+AG69*32+AG70*16+AG71*8+AG72*4+AG73*2+AG74,2),",")</f>
+        <f t="shared" si="23"/>
         <v>0x92,</v>
       </c>
       <c r="AH76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH67*128+AH68*64+AH69*32+AH70*16+AH71*8+AH72*4+AH73*2+AH74,2),",")</f>
+        <f t="shared" si="23"/>
         <v>0x8C,</v>
       </c>
       <c r="AI76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI67*128+AI68*64+AI69*32+AI70*16+AI71*8+AI72*4+AI73*2+AI74,2),",")</f>
+        <f t="shared" si="23"/>
         <v>0x00,</v>
       </c>
       <c r="AJ76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ67*128+AJ68*64+AJ69*32+AJ70*16+AJ71*8+AJ72*4+AJ73*2+AJ74,2),",")</f>
+        <f t="shared" si="23"/>
         <v>0x12,</v>
       </c>
       <c r="AK76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK67*128+AK68*64+AK69*32+AK70*16+AK71*8+AK72*4+AK73*2+AK74,2),",")</f>
+        <f t="shared" si="23"/>
         <v>0x2A,</v>
       </c>
       <c r="AL76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL67*128+AL68*64+AL69*32+AL70*16+AL71*8+AL72*4+AL73*2+AL74,2),",")</f>
+        <f t="shared" si="23"/>
         <v>0x24,</v>
       </c>
       <c r="AM76" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM67*128+AM68*64+AM69*32+AM70*16+AM71*8+AM72*4+AM73*2+AM74,2),",")</f>
+        <f t="shared" si="23"/>
         <v>0x00,</v>
       </c>
     </row>
@@ -17603,131 +17517,131 @@
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B80*128+B81*64+B82*32+B83*16+B84*8+B85*4+B86*2+B87,2),",")</f>
+        <f t="shared" ref="B89:I89" si="24">CONCATENATE("0x",DEC2HEX(B80*128+B81*64+B82*32+B83*16+B84*8+B85*4+B86*2+B87,2),",")</f>
         <v>0x80,</v>
       </c>
       <c r="C89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C80*128+C81*64+C82*32+C83*16+C84*8+C85*4+C86*2+C87,2),",")</f>
+        <f t="shared" si="24"/>
         <v>0xFE,</v>
       </c>
       <c r="D89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D80*128+D81*64+D82*32+D83*16+D84*8+D85*4+D86*2+D87,2),",")</f>
+        <f t="shared" si="24"/>
         <v>0x80,</v>
       </c>
       <c r="E89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E80*128+E81*64+E82*32+E83*16+E84*8+E85*4+E86*2+E87,2),",")</f>
+        <f t="shared" si="24"/>
         <v>0x00,</v>
       </c>
       <c r="F89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F80*128+F81*64+F82*32+F83*16+F84*8+F85*4+F86*2+F87,2),",")</f>
+        <f t="shared" si="24"/>
         <v>0x7C,</v>
       </c>
       <c r="G89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G80*128+G81*64+G82*32+G83*16+G84*8+G85*4+G86*2+G87,2),",")</f>
+        <f t="shared" si="24"/>
         <v>0x22,</v>
       </c>
       <c r="H89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H80*128+H81*64+H82*32+H83*16+H84*8+H85*4+H86*2+H87,2),",")</f>
+        <f t="shared" si="24"/>
         <v>0x02,</v>
       </c>
       <c r="I89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I80*128+I81*64+I82*32+I83*16+I84*8+I85*4+I86*2+I87,2),",")</f>
+        <f t="shared" si="24"/>
         <v>0x00,</v>
       </c>
       <c r="L89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L80*128+L81*64+L82*32+L83*16+L84*8+L85*4+L86*2+L87,2),",")</f>
+        <f t="shared" ref="L89:S89" si="25">CONCATENATE("0x",DEC2HEX(L80*128+L81*64+L82*32+L83*16+L84*8+L85*4+L86*2+L87,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="M89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M80*128+M81*64+M82*32+M83*16+M84*8+M85*4+M86*2+M87,2),",")</f>
+        <f t="shared" si="25"/>
         <v>0x02,</v>
       </c>
       <c r="N89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N80*128+N81*64+N82*32+N83*16+N84*8+N85*4+N86*2+N87,2),",")</f>
+        <f t="shared" si="25"/>
         <v>0xFE,</v>
       </c>
       <c r="O89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O80*128+O81*64+O82*32+O83*16+O84*8+O85*4+O86*2+O87,2),",")</f>
+        <f t="shared" si="25"/>
         <v>0x00,</v>
       </c>
       <c r="P89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P80*128+P81*64+P82*32+P83*16+P84*8+P85*4+P86*2+P87,2),",")</f>
+        <f t="shared" si="25"/>
         <v>0x3E,</v>
       </c>
       <c r="Q89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q80*128+Q81*64+Q82*32+Q83*16+Q84*8+Q85*4+Q86*2+Q87,2),",")</f>
+        <f t="shared" si="25"/>
         <v>0x02,</v>
       </c>
       <c r="R89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R80*128+R81*64+R82*32+R83*16+R84*8+R85*4+R86*2+R87,2),",")</f>
+        <f t="shared" si="25"/>
         <v>0x3E,</v>
       </c>
       <c r="S89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S80*128+S81*64+S82*32+S83*16+S84*8+S85*4+S86*2+S87,2),",")</f>
+        <f t="shared" si="25"/>
         <v>0x00,</v>
       </c>
       <c r="V89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V80*128+V81*64+V82*32+V83*16+V84*8+V85*4+V86*2+V87,2),",")</f>
+        <f t="shared" ref="V89:AC89" si="26">CONCATENATE("0x",DEC2HEX(V80*128+V81*64+V82*32+V83*16+V84*8+V85*4+V86*2+V87,2),",")</f>
         <v>0xF8,</v>
       </c>
       <c r="W89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W80*128+W81*64+W82*32+W83*16+W84*8+W85*4+W86*2+W87,2),",")</f>
+        <f t="shared" si="26"/>
         <v>0x04,</v>
       </c>
       <c r="X89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X80*128+X81*64+X82*32+X83*16+X84*8+X85*4+X86*2+X87,2),",")</f>
+        <f t="shared" si="26"/>
         <v>0xFE,</v>
       </c>
       <c r="Y89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y80*128+Y81*64+Y82*32+Y83*16+Y84*8+Y85*4+Y86*2+Y87,2),",")</f>
+        <f t="shared" si="26"/>
         <v>0x00,</v>
       </c>
       <c r="Z89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z80*128+Z81*64+Z82*32+Z83*16+Z84*8+Z85*4+Z86*2+Z87,2),",")</f>
+        <f t="shared" si="26"/>
         <v>0x38,</v>
       </c>
       <c r="AA89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA80*128+AA81*64+AA82*32+AA83*16+AA84*8+AA85*4+AA86*2+AA87,2),",")</f>
+        <f t="shared" si="26"/>
         <v>0x04,</v>
       </c>
       <c r="AB89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB80*128+AB81*64+AB82*32+AB83*16+AB84*8+AB85*4+AB86*2+AB87,2),",")</f>
+        <f t="shared" si="26"/>
         <v>0x3E,</v>
       </c>
       <c r="AC89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC80*128+AC81*64+AC82*32+AC83*16+AC84*8+AC85*4+AC86*2+AC87,2),",")</f>
+        <f t="shared" si="26"/>
         <v>0x00,</v>
       </c>
       <c r="AF89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF80*128+AF81*64+AF82*32+AF83*16+AF84*8+AF85*4+AF86*2+AF87,2),",")</f>
+        <f t="shared" ref="AF89:AM89" si="27">CONCATENATE("0x",DEC2HEX(AF80*128+AF81*64+AF82*32+AF83*16+AF84*8+AF85*4+AF86*2+AF87,2),",")</f>
         <v>0xFE,</v>
       </c>
       <c r="AG89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG80*128+AG81*64+AG82*32+AG83*16+AG84*8+AG85*4+AG86*2+AG87,2),",")</f>
+        <f t="shared" si="27"/>
         <v>0x0C,</v>
       </c>
       <c r="AH89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH80*128+AH81*64+AH82*32+AH83*16+AH84*8+AH85*4+AH86*2+AH87,2),",")</f>
+        <f t="shared" si="27"/>
         <v>0xFE,</v>
       </c>
       <c r="AI89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI80*128+AI81*64+AI82*32+AI83*16+AI84*8+AI85*4+AI86*2+AI87,2),",")</f>
+        <f t="shared" si="27"/>
         <v>0x00,</v>
       </c>
       <c r="AJ89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ80*128+AJ81*64+AJ82*32+AJ83*16+AJ84*8+AJ85*4+AJ86*2+AJ87,2),",")</f>
+        <f t="shared" si="27"/>
         <v>0x3E,</v>
       </c>
       <c r="AK89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK80*128+AK81*64+AK82*32+AK83*16+AK84*8+AK85*4+AK86*2+AK87,2),",")</f>
+        <f t="shared" si="27"/>
         <v>0x06,</v>
       </c>
       <c r="AL89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL80*128+AL81*64+AL82*32+AL83*16+AL84*8+AL85*4+AL86*2+AL87,2),",")</f>
+        <f t="shared" si="27"/>
         <v>0x3E,</v>
       </c>
       <c r="AM89" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM80*128+AM81*64+AM82*32+AM83*16+AM84*8+AM85*4+AM86*2+AM87,2),",")</f>
+        <f t="shared" si="27"/>
         <v>0x00,</v>
       </c>
     </row>
@@ -18198,131 +18112,131 @@
     </row>
     <row r="102" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B93*128+B94*64+B95*32+B96*16+B97*8+B98*4+B99*2+B100,2),",")</f>
+        <f t="shared" ref="B102:I102" si="28">CONCATENATE("0x",DEC2HEX(B93*128+B94*64+B95*32+B96*16+B97*8+B98*4+B99*2+B100,2),",")</f>
         <v>0xEE,</v>
       </c>
       <c r="C102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C93*128+C94*64+C95*32+C96*16+C97*8+C98*4+C99*2+C100,2),",")</f>
+        <f t="shared" si="28"/>
         <v>0x10,</v>
       </c>
       <c r="D102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D93*128+D94*64+D95*32+D96*16+D97*8+D98*4+D99*2+D100,2),",")</f>
+        <f t="shared" si="28"/>
         <v>0xEE,</v>
       </c>
       <c r="E102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E93*128+E94*64+E95*32+E96*16+E97*8+E98*4+E99*2+E100,2),",")</f>
+        <f t="shared" si="28"/>
         <v>0x00,</v>
       </c>
       <c r="F102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F93*128+F94*64+F95*32+F96*16+F97*8+F98*4+F99*2+F100,2),",")</f>
+        <f t="shared" si="28"/>
         <v>0x36,</v>
       </c>
       <c r="G102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G93*128+G94*64+G95*32+G96*16+G97*8+G98*4+G99*2+G100,2),",")</f>
+        <f t="shared" si="28"/>
         <v>0x08,</v>
       </c>
       <c r="H102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H93*128+H94*64+H95*32+H96*16+H97*8+H98*4+H99*2+H100,2),",")</f>
+        <f t="shared" si="28"/>
         <v>0x36,</v>
       </c>
       <c r="I102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I93*128+I94*64+I95*32+I96*16+I97*8+I98*4+I99*2+I100,2),",")</f>
+        <f t="shared" si="28"/>
         <v>0x00,</v>
       </c>
       <c r="L102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L93*128+L94*64+L95*32+L96*16+L97*8+L98*4+L99*2+L100,2),",")</f>
+        <f t="shared" ref="L102:S102" si="29">CONCATENATE("0x",DEC2HEX(L93*128+L94*64+L95*32+L96*16+L97*8+L98*4+L99*2+L100,2),",")</f>
         <v>0xF0,</v>
       </c>
       <c r="M102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M93*128+M94*64+M95*32+M96*16+M97*8+M98*4+M99*2+M100,2),",")</f>
+        <f t="shared" si="29"/>
         <v>0x1E,</v>
       </c>
       <c r="N102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N93*128+N94*64+N95*32+N96*16+N97*8+N98*4+N99*2+N100,2),",")</f>
+        <f t="shared" si="29"/>
         <v>0xF0,</v>
       </c>
       <c r="O102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O93*128+O94*64+O95*32+O96*16+O97*8+O98*4+O99*2+O100,2),",")</f>
+        <f t="shared" si="29"/>
         <v>0x00,</v>
       </c>
       <c r="P102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P93*128+P94*64+P95*32+P96*16+P97*8+P98*4+P99*2+P100,2),",")</f>
+        <f t="shared" si="29"/>
         <v>0x32,</v>
       </c>
       <c r="Q102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q93*128+Q94*64+Q95*32+Q96*16+Q97*8+Q98*4+Q99*2+Q100,2),",")</f>
+        <f t="shared" si="29"/>
         <v>0x0A,</v>
       </c>
       <c r="R102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R93*128+R94*64+R95*32+R96*16+R97*8+R98*4+R99*2+R100,2),",")</f>
+        <f t="shared" si="29"/>
         <v>0x3C,</v>
       </c>
       <c r="S102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S93*128+S94*64+S95*32+S96*16+S97*8+S98*4+S99*2+S100,2),",")</f>
+        <f t="shared" si="29"/>
         <v>0x00,</v>
       </c>
       <c r="V102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V93*128+V94*64+V95*32+V96*16+V97*8+V98*4+V99*2+V100,2),",")</f>
+        <f t="shared" ref="V102:AC102" si="30">CONCATENATE("0x",DEC2HEX(V93*128+V94*64+V95*32+V96*16+V97*8+V98*4+V99*2+V100,2),",")</f>
         <v>0x8E,</v>
       </c>
       <c r="W102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W93*128+W94*64+W95*32+W96*16+W97*8+W98*4+W99*2+W100,2),",")</f>
+        <f t="shared" si="30"/>
         <v>0x92,</v>
       </c>
       <c r="X102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X93*128+X94*64+X95*32+X96*16+X97*8+X98*4+X99*2+X100,2),",")</f>
+        <f t="shared" si="30"/>
         <v>0xE2,</v>
       </c>
       <c r="Y102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y93*128+Y94*64+Y95*32+Y96*16+Y97*8+Y98*4+Y99*2+Y100,2),",")</f>
+        <f t="shared" si="30"/>
         <v>0x00,</v>
       </c>
       <c r="Z102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z93*128+Z94*64+Z95*32+Z96*16+Z97*8+Z98*4+Z99*2+Z100,2),",")</f>
+        <f t="shared" si="30"/>
         <v>0x26,</v>
       </c>
       <c r="AA102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA93*128+AA94*64+AA95*32+AA96*16+AA97*8+AA98*4+AA99*2+AA100,2),",")</f>
+        <f t="shared" si="30"/>
         <v>0x2A,</v>
       </c>
       <c r="AB102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB93*128+AB94*64+AB95*32+AB96*16+AB97*8+AB98*4+AB99*2+AB100,2),",")</f>
+        <f t="shared" si="30"/>
         <v>0x32,</v>
       </c>
       <c r="AC102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC93*128+AC94*64+AC95*32+AC96*16+AC97*8+AC98*4+AC99*2+AC100,2),",")</f>
+        <f t="shared" si="30"/>
         <v>0x00,</v>
       </c>
       <c r="AF102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF93*128+AF94*64+AF95*32+AF96*16+AF97*8+AF98*4+AF99*2+AF100,2),",")</f>
+        <f t="shared" ref="AF102:AM102" si="31">CONCATENATE("0x",DEC2HEX(AF93*128+AF94*64+AF95*32+AF96*16+AF97*8+AF98*4+AF99*2+AF100,2),",")</f>
         <v>0x00,</v>
       </c>
       <c r="AG102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG93*128+AG94*64+AG95*32+AG96*16+AG97*8+AG98*4+AG99*2+AG100,2),",")</f>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="AH102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH93*128+AH94*64+AH95*32+AH96*16+AH97*8+AH98*4+AH99*2+AH100,2),",")</f>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="AI102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI93*128+AI94*64+AI95*32+AI96*16+AI97*8+AI98*4+AI99*2+AI100,2),",")</f>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="AJ102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ93*128+AJ94*64+AJ95*32+AJ96*16+AJ97*8+AJ98*4+AJ99*2+AJ100,2),",")</f>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="AK102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK93*128+AK94*64+AK95*32+AK96*16+AK97*8+AK98*4+AK99*2+AK100,2),",")</f>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="AL102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL93*128+AL94*64+AL95*32+AL96*16+AL97*8+AL98*4+AL99*2+AL100,2),",")</f>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="AM102" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM93*128+AM94*64+AM95*32+AM96*16+AM97*8+AM98*4+AM99*2+AM100,2),",")</f>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
     </row>
@@ -18434,7 +18348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y64" sqref="Y64"/>
     </sheetView>
   </sheetViews>
@@ -18818,131 +18732,131 @@
     </row>
     <row r="11" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B2*128+B3*64+B4*32+B5*16+B6*8+B7*4+B8*2+B9,2),",")</f>
+        <f t="shared" ref="B11:I11" si="0">CONCATENATE("0x",DEC2HEX(B2*128+B3*64+B4*32+B5*16+B6*8+B7*4+B8*2+B9,2),",")</f>
         <v>0x00,</v>
       </c>
       <c r="C11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C2*128+C3*64+C4*32+C5*16+C6*8+C7*4+C8*2+C9,2),",")</f>
+        <f t="shared" si="0"/>
         <v>0x00,</v>
       </c>
       <c r="D11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D2*128+D3*64+D4*32+D5*16+D6*8+D7*4+D8*2+D9,2),",")</f>
+        <f t="shared" si="0"/>
         <v>0x00,</v>
       </c>
       <c r="E11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E2*128+E3*64+E4*32+E5*16+E6*8+E7*4+E8*2+E9,2),",")</f>
+        <f t="shared" si="0"/>
         <v>0x00,</v>
       </c>
       <c r="F11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F2*128+F3*64+F4*32+F5*16+F6*8+F7*4+F8*2+F9,2),",")</f>
+        <f t="shared" si="0"/>
         <v>0x00,</v>
       </c>
       <c r="G11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G2*128+G3*64+G4*32+G5*16+G6*8+G7*4+G8*2+G9,2),",")</f>
+        <f t="shared" si="0"/>
         <v>0x00,</v>
       </c>
       <c r="H11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H2*128+H3*64+H4*32+H5*16+H6*8+H7*4+H8*2+H9,2),",")</f>
+        <f t="shared" si="0"/>
         <v>0x00,</v>
       </c>
       <c r="I11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I2*128+I3*64+I4*32+I5*16+I6*8+I7*4+I8*2+I9,2),",")</f>
+        <f t="shared" si="0"/>
         <v>0x00,</v>
       </c>
       <c r="L11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L2*128+L3*64+L4*32+L5*16+L6*8+L7*4+L8*2+L9,2),",")</f>
+        <f t="shared" ref="L11:S11" si="1">CONCATENATE("0x",DEC2HEX(L2*128+L3*64+L4*32+L5*16+L6*8+L7*4+L8*2+L9,2),",")</f>
         <v>0x00,</v>
       </c>
       <c r="M11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M2*128+M3*64+M4*32+M5*16+M6*8+M7*4+M8*2+M9,2),",")</f>
+        <f t="shared" si="1"/>
         <v>0x00,</v>
       </c>
       <c r="N11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N2*128+N3*64+N4*32+N5*16+N6*8+N7*4+N8*2+N9,2),",")</f>
+        <f t="shared" si="1"/>
         <v>0xF0,</v>
       </c>
       <c r="O11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O2*128+O3*64+O4*32+O5*16+O6*8+O7*4+O8*2+O9,2),",")</f>
+        <f t="shared" si="1"/>
         <v>0x00,</v>
       </c>
       <c r="P11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P2*128+P3*64+P4*32+P5*16+P6*8+P7*4+P8*2+P9,2),",")</f>
+        <f t="shared" si="1"/>
         <v>0xB0,</v>
       </c>
       <c r="Q11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q2*128+Q3*64+Q4*32+Q5*16+Q6*8+Q7*4+Q8*2+Q9,2),",")</f>
+        <f t="shared" si="1"/>
         <v>0xB0,</v>
       </c>
       <c r="R11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R2*128+R3*64+R4*32+R5*16+R6*8+R7*4+R8*2+R9,2),",")</f>
+        <f t="shared" si="1"/>
         <v>0xD0,</v>
       </c>
       <c r="S11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S2*128+S3*64+S4*32+S5*16+S6*8+S7*4+S8*2+S9,2),",")</f>
+        <f t="shared" si="1"/>
         <v>0x00,</v>
       </c>
       <c r="V11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V2*128+V3*64+V4*32+V5*16+V6*8+V7*4+V8*2+V9,2),",")</f>
+        <f t="shared" ref="V11:AC11" si="2">CONCATENATE("0x",DEC2HEX(V2*128+V3*64+V4*32+V5*16+V6*8+V7*4+V8*2+V9,2),",")</f>
         <v>0x90,</v>
       </c>
       <c r="W11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W2*128+W3*64+W4*32+W5*16+W6*8+W7*4+W8*2+W9,2),",")</f>
+        <f t="shared" si="2"/>
         <v>0xD0,</v>
       </c>
       <c r="X11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X2*128+X3*64+X4*32+X5*16+X6*8+X7*4+X8*2+X9,2),",")</f>
+        <f t="shared" si="2"/>
         <v>0xF0,</v>
       </c>
       <c r="Y11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y2*128+Y3*64+Y4*32+Y5*16+Y6*8+Y7*4+Y8*2+Y9,2),",")</f>
+        <f t="shared" si="2"/>
         <v>0x00,</v>
       </c>
       <c r="Z11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z2*128+Z3*64+Z4*32+Z5*16+Z6*8+Z7*4+Z8*2+Z9,2),",")</f>
+        <f t="shared" si="2"/>
         <v>0x60,</v>
       </c>
       <c r="AA11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA2*128+AA3*64+AA4*32+AA5*16+AA6*8+AA7*4+AA8*2+AA9,2),",")</f>
+        <f t="shared" si="2"/>
         <v>0x20,</v>
       </c>
       <c r="AB11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB2*128+AB3*64+AB4*32+AB5*16+AB6*8+AB7*4+AB8*2+AB9,2),",")</f>
+        <f t="shared" si="2"/>
         <v>0xF0,</v>
       </c>
       <c r="AC11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC2*128+AC3*64+AC4*32+AC5*16+AC6*8+AC7*4+AC8*2+AC9,2),",")</f>
+        <f t="shared" si="2"/>
         <v>0x00,</v>
       </c>
       <c r="AF11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF2*128+AF3*64+AF4*32+AF5*16+AF6*8+AF7*4+AF8*2+AF9,2),",")</f>
+        <f t="shared" ref="AF11:AM11" si="3">CONCATENATE("0x",DEC2HEX(AF2*128+AF3*64+AF4*32+AF5*16+AF6*8+AF7*4+AF8*2+AF9,2),",")</f>
         <v>0xD0,</v>
       </c>
       <c r="AG11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG2*128+AG3*64+AG4*32+AG5*16+AG6*8+AG7*4+AG8*2+AG9,2),",")</f>
+        <f t="shared" si="3"/>
         <v>0xD0,</v>
       </c>
       <c r="AH11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH2*128+AH3*64+AH4*32+AH5*16+AH6*8+AH7*4+AH8*2+AH9,2),",")</f>
+        <f t="shared" si="3"/>
         <v>0xB0,</v>
       </c>
       <c r="AI11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI2*128+AI3*64+AI4*32+AI5*16+AI6*8+AI7*4+AI8*2+AI9,2),",")</f>
+        <f t="shared" si="3"/>
         <v>0x00,</v>
       </c>
       <c r="AJ11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ2*128+AJ3*64+AJ4*32+AJ5*16+AJ6*8+AJ7*4+AJ8*2+AJ9,2),",")</f>
+        <f t="shared" si="3"/>
         <v>0x70,</v>
       </c>
       <c r="AK11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK2*128+AK3*64+AK4*32+AK5*16+AK6*8+AK7*4+AK8*2+AK9,2),",")</f>
+        <f t="shared" si="3"/>
         <v>0xB0,</v>
       </c>
       <c r="AL11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL2*128+AL3*64+AL4*32+AL5*16+AL6*8+AL7*4+AL8*2+AL9,2),",")</f>
+        <f t="shared" si="3"/>
         <v>0xB0,</v>
       </c>
       <c r="AM11" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM2*128+AM3*64+AM4*32+AM5*16+AM6*8+AM7*4+AM8*2+AM9,2),",")</f>
+        <f t="shared" si="3"/>
         <v>0x00,</v>
       </c>
     </row>
@@ -19403,131 +19317,131 @@
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B15*128+B16*64+B17*32+B18*16+B19*8+B20*4+B21*2+B22,2),",")</f>
+        <f t="shared" ref="B24:I24" si="4">CONCATENATE("0x",DEC2HEX(B15*128+B16*64+B17*32+B18*16+B19*8+B20*4+B21*2+B22,2),",")</f>
         <v>0x80,</v>
       </c>
       <c r="C24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C15*128+C16*64+C17*32+C18*16+C19*8+C20*4+C21*2+C22,2),",")</f>
+        <f t="shared" si="4"/>
         <v>0xB0,</v>
       </c>
       <c r="D24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D15*128+D16*64+D17*32+D18*16+D19*8+D20*4+D21*2+D22,2),",")</f>
+        <f t="shared" si="4"/>
         <v>0xC0,</v>
       </c>
       <c r="E24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E15*128+E16*64+E17*32+E18*16+E19*8+E20*4+E21*2+E22,2),",")</f>
+        <f t="shared" si="4"/>
         <v>0x00,</v>
       </c>
       <c r="F24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F15*128+F16*64+F17*32+F18*16+F19*8+F20*4+F21*2+F22,2),",")</f>
+        <f t="shared" si="4"/>
         <v>0xF0,</v>
       </c>
       <c r="G24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G15*128+G16*64+G17*32+G18*16+G19*8+G20*4+G21*2+G22,2),",")</f>
+        <f t="shared" si="4"/>
         <v>0xD0,</v>
       </c>
       <c r="H24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H15*128+H16*64+H17*32+H18*16+H19*8+H20*4+H21*2+H22,2),",")</f>
+        <f t="shared" si="4"/>
         <v>0xF0,</v>
       </c>
       <c r="I24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I15*128+I16*64+I17*32+I18*16+I19*8+I20*4+I21*2+I22,2),",")</f>
+        <f t="shared" si="4"/>
         <v>0x00,</v>
       </c>
       <c r="L24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L15*128+L16*64+L17*32+L18*16+L19*8+L20*4+L21*2+L22,2),",")</f>
+        <f t="shared" ref="L24:S24" si="5">CONCATENATE("0x",DEC2HEX(L15*128+L16*64+L17*32+L18*16+L19*8+L20*4+L21*2+L22,2),",")</f>
         <v>0x40,</v>
       </c>
       <c r="M24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M15*128+M16*64+M17*32+M18*16+M19*8+M20*4+M21*2+M22,2),",")</f>
+        <f t="shared" si="5"/>
         <v>0xA0,</v>
       </c>
       <c r="N24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N15*128+N16*64+N17*32+N18*16+N19*8+N20*4+N21*2+N22,2),",")</f>
+        <f t="shared" si="5"/>
         <v>0xF0,</v>
       </c>
       <c r="O24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O15*128+O16*64+O17*32+O18*16+O19*8+O20*4+O21*2+O22,2),",")</f>
+        <f t="shared" si="5"/>
         <v>0x00,</v>
       </c>
       <c r="P24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P15*128+P16*64+P17*32+P18*16+P19*8+P20*4+P21*2+P22,2),",")</f>
+        <f t="shared" si="5"/>
         <v>0x60,</v>
       </c>
       <c r="Q24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q15*128+Q16*64+Q17*32+Q18*16+Q19*8+Q20*4+Q21*2+Q22,2),",")</f>
+        <f t="shared" si="5"/>
         <v>0x90,</v>
       </c>
       <c r="R24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R15*128+R16*64+R17*32+R18*16+R19*8+R20*4+R21*2+R22,2),",")</f>
+        <f t="shared" si="5"/>
         <v>0x60,</v>
       </c>
       <c r="S24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S15*128+S16*64+S17*32+S18*16+S19*8+S20*4+S21*2+S22,2),",")</f>
+        <f t="shared" si="5"/>
         <v>0x00,</v>
       </c>
       <c r="V24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V15*128+V16*64+V17*32+V18*16+V19*8+V20*4+V21*2+V22,2),",")</f>
+        <f t="shared" ref="V24:AC24" si="6">CONCATENATE("0x",DEC2HEX(V15*128+V16*64+V17*32+V18*16+V19*8+V20*4+V21*2+V22,2),",")</f>
         <v>0x70,</v>
       </c>
       <c r="W24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W15*128+W16*64+W17*32+W18*16+W19*8+W20*4+W21*2+W22,2),",")</f>
+        <f t="shared" si="6"/>
         <v>0xA0,</v>
       </c>
       <c r="X24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X15*128+X16*64+X17*32+X18*16+X19*8+X20*4+X21*2+X22,2),",")</f>
+        <f t="shared" si="6"/>
         <v>0x70,</v>
       </c>
       <c r="Y24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y15*128+Y16*64+Y17*32+Y18*16+Y19*8+Y20*4+Y21*2+Y22,2),",")</f>
+        <f t="shared" si="6"/>
         <v>0x00,</v>
       </c>
       <c r="Z24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z15*128+Z16*64+Z17*32+Z18*16+Z19*8+Z20*4+Z21*2+Z22,2),",")</f>
+        <f t="shared" si="6"/>
         <v>0xF0,</v>
       </c>
       <c r="AA24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA15*128+AA16*64+AA17*32+AA18*16+AA19*8+AA20*4+AA21*2+AA22,2),",")</f>
+        <f t="shared" si="6"/>
         <v>0x50,</v>
       </c>
       <c r="AB24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB15*128+AB16*64+AB17*32+AB18*16+AB19*8+AB20*4+AB21*2+AB22,2),",")</f>
+        <f t="shared" si="6"/>
         <v>0x70,</v>
       </c>
       <c r="AC24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC15*128+AC16*64+AC17*32+AC18*16+AC19*8+AC20*4+AC21*2+AC22,2),",")</f>
+        <f t="shared" si="6"/>
         <v>0x00,</v>
       </c>
       <c r="AF24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF15*128+AF16*64+AF17*32+AF18*16+AF19*8+AF20*4+AF21*2+AF22,2),",")</f>
+        <f t="shared" ref="AF24:AM24" si="7">CONCATENATE("0x",DEC2HEX(AF15*128+AF16*64+AF17*32+AF18*16+AF19*8+AF20*4+AF21*2+AF22,2),",")</f>
         <v>0x60,</v>
       </c>
       <c r="AG24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG15*128+AG16*64+AG17*32+AG18*16+AG19*8+AG20*4+AG21*2+AG22,2),",")</f>
+        <f t="shared" si="7"/>
         <v>0x90,</v>
       </c>
       <c r="AH24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH15*128+AH16*64+AH17*32+AH18*16+AH19*8+AH20*4+AH21*2+AH22,2),",")</f>
+        <f t="shared" si="7"/>
         <v>0x90,</v>
       </c>
       <c r="AI24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI15*128+AI16*64+AI17*32+AI18*16+AI19*8+AI20*4+AI21*2+AI22,2),",")</f>
+        <f t="shared" si="7"/>
         <v>0x00,</v>
       </c>
       <c r="AJ24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ15*128+AJ16*64+AJ17*32+AJ18*16+AJ19*8+AJ20*4+AJ21*2+AJ22,2),",")</f>
+        <f t="shared" si="7"/>
         <v>0xF0,</v>
       </c>
       <c r="AK24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK15*128+AK16*64+AK17*32+AK18*16+AK19*8+AK20*4+AK21*2+AK22,2),",")</f>
+        <f t="shared" si="7"/>
         <v>0x90,</v>
       </c>
       <c r="AL24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL15*128+AL16*64+AL17*32+AL18*16+AL19*8+AL20*4+AL21*2+AL22,2),",")</f>
+        <f t="shared" si="7"/>
         <v>0x60,</v>
       </c>
       <c r="AM24" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM15*128+AM16*64+AM17*32+AM18*16+AM19*8+AM20*4+AM21*2+AM22,2),",")</f>
+        <f t="shared" si="7"/>
         <v>0x00,</v>
       </c>
     </row>
@@ -19992,131 +19906,131 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B28*128+B29*64+B30*32+B31*16+B32*8+B33*4+B34*2+B35,2),",")</f>
+        <f t="shared" ref="B37:I37" si="8">CONCATENATE("0x",DEC2HEX(B28*128+B29*64+B30*32+B31*16+B32*8+B33*4+B34*2+B35,2),",")</f>
         <v>0xF0,</v>
       </c>
       <c r="C37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C28*128+C29*64+C30*32+C31*16+C32*8+C33*4+C34*2+C35,2),",")</f>
+        <f t="shared" si="8"/>
         <v>0xB0,</v>
       </c>
       <c r="D37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D28*128+D29*64+D30*32+D31*16+D32*8+D33*4+D34*2+D35,2),",")</f>
+        <f t="shared" si="8"/>
         <v>0x90,</v>
       </c>
       <c r="E37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E28*128+E29*64+E30*32+E31*16+E32*8+E33*4+E34*2+E35,2),",")</f>
+        <f t="shared" si="8"/>
         <v>0x00,</v>
       </c>
       <c r="F37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F28*128+F29*64+F30*32+F31*16+F32*8+F33*4+F34*2+F35,2),",")</f>
+        <f t="shared" si="8"/>
         <v>0xF0,</v>
       </c>
       <c r="G37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G28*128+G29*64+G30*32+G31*16+G32*8+G33*4+G34*2+G35,2),",")</f>
+        <f t="shared" si="8"/>
         <v>0xA0,</v>
       </c>
       <c r="H37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H28*128+H29*64+H30*32+H31*16+H32*8+H33*4+H34*2+H35,2),",")</f>
+        <f t="shared" si="8"/>
         <v>0x80,</v>
       </c>
       <c r="I37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I28*128+I29*64+I30*32+I31*16+I32*8+I33*4+I34*2+I35,2),",")</f>
+        <f t="shared" si="8"/>
         <v>0x00,</v>
       </c>
       <c r="L37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L28*128+L29*64+L30*32+L31*16+L32*8+L33*4+L34*2+L35,2),",")</f>
+        <f t="shared" ref="L37:S37" si="9">CONCATENATE("0x",DEC2HEX(L28*128+L29*64+L30*32+L31*16+L32*8+L33*4+L34*2+L35,2),",")</f>
         <v>0x60,</v>
       </c>
       <c r="M37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M28*128+M29*64+M30*32+M31*16+M32*8+M33*4+M34*2+M35,2),",")</f>
+        <f t="shared" si="9"/>
         <v>0x90,</v>
       </c>
       <c r="N37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N28*128+N29*64+N30*32+N31*16+N32*8+N33*4+N34*2+N35,2),",")</f>
+        <f t="shared" si="9"/>
         <v>0xB0,</v>
       </c>
       <c r="O37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O28*128+O29*64+O30*32+O31*16+O32*8+O33*4+O34*2+O35,2),",")</f>
+        <f t="shared" si="9"/>
         <v>0x00,</v>
       </c>
       <c r="P37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P28*128+P29*64+P30*32+P31*16+P32*8+P33*4+P34*2+P35,2),",")</f>
+        <f t="shared" si="9"/>
         <v>0xF0,</v>
       </c>
       <c r="Q37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q28*128+Q29*64+Q30*32+Q31*16+Q32*8+Q33*4+Q34*2+Q35,2),",")</f>
+        <f t="shared" si="9"/>
         <v>0x20,</v>
       </c>
       <c r="R37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R28*128+R29*64+R30*32+R31*16+R32*8+R33*4+R34*2+R35,2),",")</f>
+        <f t="shared" si="9"/>
         <v>0xF0,</v>
       </c>
       <c r="S37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S28*128+S29*64+S30*32+S31*16+S32*8+S33*4+S34*2+S35,2),",")</f>
+        <f t="shared" si="9"/>
         <v>0x00,</v>
       </c>
       <c r="V37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V28*128+V29*64+V30*32+V31*16+V32*8+V33*4+V34*2+V35,2),",")</f>
+        <f t="shared" ref="V37:AC37" si="10">CONCATENATE("0x",DEC2HEX(V28*128+V29*64+V30*32+V31*16+V32*8+V33*4+V34*2+V35,2),",")</f>
         <v>0x90,</v>
       </c>
       <c r="W37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W28*128+W29*64+W30*32+W31*16+W32*8+W33*4+W34*2+W35,2),",")</f>
+        <f t="shared" si="10"/>
         <v>0xF0,</v>
       </c>
       <c r="X37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X28*128+X29*64+X30*32+X31*16+X32*8+X33*4+X34*2+X35,2),",")</f>
+        <f t="shared" si="10"/>
         <v>0x90,</v>
       </c>
       <c r="Y37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y28*128+Y29*64+Y30*32+Y31*16+Y32*8+Y33*4+Y34*2+Y35,2),",")</f>
+        <f t="shared" si="10"/>
         <v>0x00,</v>
       </c>
       <c r="Z37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z28*128+Z29*64+Z30*32+Z31*16+Z32*8+Z33*4+Z34*2+Z35,2),",")</f>
+        <f t="shared" si="10"/>
         <v>0x20,</v>
       </c>
       <c r="AA37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA28*128+AA29*64+AA30*32+AA31*16+AA32*8+AA33*4+AA34*2+AA35,2),",")</f>
+        <f t="shared" si="10"/>
         <v>0x90,</v>
       </c>
       <c r="AB37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB28*128+AB29*64+AB30*32+AB31*16+AB32*8+AB33*4+AB34*2+AB35,2),",")</f>
+        <f t="shared" si="10"/>
         <v>0xE0,</v>
       </c>
       <c r="AC37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC28*128+AC29*64+AC30*32+AC31*16+AC32*8+AC33*4+AC34*2+AC35,2),",")</f>
+        <f t="shared" si="10"/>
         <v>0x00,</v>
       </c>
       <c r="AF37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF28*128+AF29*64+AF30*32+AF31*16+AF32*8+AF33*4+AF34*2+AF35,2),",")</f>
+        <f t="shared" ref="AF37:AM37" si="11">CONCATENATE("0x",DEC2HEX(AF28*128+AF29*64+AF30*32+AF31*16+AF32*8+AF33*4+AF34*2+AF35,2),",")</f>
         <v>0xF0,</v>
       </c>
       <c r="AG37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG28*128+AG29*64+AG30*32+AG31*16+AG32*8+AG33*4+AG34*2+AG35,2),",")</f>
+        <f t="shared" si="11"/>
         <v>0x40,</v>
       </c>
       <c r="AH37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH28*128+AH29*64+AH30*32+AH31*16+AH32*8+AH33*4+AH34*2+AH35,2),",")</f>
+        <f t="shared" si="11"/>
         <v>0xB0,</v>
       </c>
       <c r="AI37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI28*128+AI29*64+AI30*32+AI31*16+AI32*8+AI33*4+AI34*2+AI35,2),",")</f>
+        <f t="shared" si="11"/>
         <v>0x00,</v>
       </c>
       <c r="AJ37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ28*128+AJ29*64+AJ30*32+AJ31*16+AJ32*8+AJ33*4+AJ34*2+AJ35,2),",")</f>
+        <f t="shared" si="11"/>
         <v>0xF0,</v>
       </c>
       <c r="AK37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK28*128+AK29*64+AK30*32+AK31*16+AK32*8+AK33*4+AK34*2+AK35,2),",")</f>
+        <f t="shared" si="11"/>
         <v>0x10,</v>
       </c>
       <c r="AL37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL28*128+AL29*64+AL30*32+AL31*16+AL32*8+AL33*4+AL34*2+AL35,2),",")</f>
+        <f t="shared" si="11"/>
         <v>0x10,</v>
       </c>
       <c r="AM37" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM28*128+AM29*64+AM30*32+AM31*16+AM32*8+AM33*4+AM34*2+AM35,2),",")</f>
+        <f t="shared" si="11"/>
         <v>0x00,</v>
       </c>
     </row>
@@ -20605,131 +20519,131 @@
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B41*128+B42*64+B43*32+B44*16+B45*8+B46*4+B47*2+B48,2),",")</f>
+        <f t="shared" ref="B50:I50" si="12">CONCATENATE("0x",DEC2HEX(B41*128+B42*64+B43*32+B44*16+B45*8+B46*4+B47*2+B48,2),",")</f>
         <v>0xF0,</v>
       </c>
       <c r="C50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C41*128+C42*64+C43*32+C44*16+C45*8+C46*4+C47*2+C48,2),",")</f>
+        <f t="shared" si="12"/>
         <v>0xC0,</v>
       </c>
       <c r="D50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D41*128+D42*64+D43*32+D44*16+D45*8+D46*4+D47*2+D48,2),",")</f>
+        <f t="shared" si="12"/>
         <v>0xF0,</v>
       </c>
       <c r="E50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E41*128+E42*64+E43*32+E44*16+E45*8+E46*4+E47*2+E48,2),",")</f>
+        <f t="shared" si="12"/>
         <v>0x00,</v>
       </c>
       <c r="F50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F41*128+F42*64+F43*32+F44*16+F45*8+F46*4+F47*2+F48,2),",")</f>
+        <f t="shared" si="12"/>
         <v>0xF0,</v>
       </c>
       <c r="G50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G41*128+G42*64+G43*32+G44*16+G45*8+G46*4+G47*2+G48,2),",")</f>
+        <f t="shared" si="12"/>
         <v>0x60,</v>
       </c>
       <c r="H50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H41*128+H42*64+H43*32+H44*16+H45*8+H46*4+H47*2+H48,2),",")</f>
+        <f t="shared" si="12"/>
         <v>0xF0,</v>
       </c>
       <c r="I50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I41*128+I42*64+I43*32+I44*16+I45*8+I46*4+I47*2+I48,2),",")</f>
+        <f t="shared" si="12"/>
         <v>0x00,</v>
       </c>
       <c r="L50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L41*128+L42*64+L43*32+L44*16+L45*8+L46*4+L47*2+L48,2),",")</f>
+        <f t="shared" ref="L50:S50" si="13">CONCATENATE("0x",DEC2HEX(L41*128+L42*64+L43*32+L44*16+L45*8+L46*4+L47*2+L48,2),",")</f>
         <v>0xF0,</v>
       </c>
       <c r="M50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M41*128+M42*64+M43*32+M44*16+M45*8+M46*4+M47*2+M48,2),",")</f>
+        <f t="shared" si="13"/>
         <v>0x90,</v>
       </c>
       <c r="N50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N41*128+N42*64+N43*32+N44*16+N45*8+N46*4+N47*2+N48,2),",")</f>
+        <f t="shared" si="13"/>
         <v>0xF0,</v>
       </c>
       <c r="O50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O41*128+O42*64+O43*32+O44*16+O45*8+O46*4+O47*2+O48,2),",")</f>
+        <f t="shared" si="13"/>
         <v>0x00,</v>
       </c>
       <c r="P50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P41*128+P42*64+P43*32+P44*16+P45*8+P46*4+P47*2+P48,2),",")</f>
+        <f t="shared" si="13"/>
         <v>0xF0,</v>
       </c>
       <c r="Q50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q41*128+Q42*64+Q43*32+Q44*16+Q45*8+Q46*4+Q47*2+Q48,2),",")</f>
+        <f t="shared" si="13"/>
         <v>0xA0,</v>
       </c>
       <c r="R50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R41*128+R42*64+R43*32+R44*16+R45*8+R46*4+R47*2+R48,2),",")</f>
+        <f t="shared" si="13"/>
         <v>0xE0,</v>
       </c>
       <c r="S50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S41*128+S42*64+S43*32+S44*16+S45*8+S46*4+S47*2+S48,2),",")</f>
+        <f t="shared" si="13"/>
         <v>0x00,</v>
       </c>
       <c r="V50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V41*128+V42*64+V43*32+V44*16+V45*8+V46*4+V47*2+V48,2),",")</f>
+        <f t="shared" ref="V50:AC50" si="14">CONCATENATE("0x",DEC2HEX(V41*128+V42*64+V43*32+V44*16+V45*8+V46*4+V47*2+V48,2),",")</f>
         <v>0xF0,</v>
       </c>
       <c r="W50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W41*128+W42*64+W43*32+W44*16+W45*8+W46*4+W47*2+W48,2),",")</f>
+        <f t="shared" si="14"/>
         <v>0x90,</v>
       </c>
       <c r="X50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X41*128+X42*64+X43*32+X44*16+X45*8+X46*4+X47*2+X48,2),",")</f>
+        <f t="shared" si="14"/>
         <v>0xF0,</v>
       </c>
       <c r="Y50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y41*128+Y42*64+Y43*32+Y44*16+Y45*8+Y46*4+Y47*2+Y48,2),",")</f>
+        <f t="shared" si="14"/>
         <v>0x10,</v>
       </c>
       <c r="Z50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z41*128+Z42*64+Z43*32+Z44*16+Z45*8+Z46*4+Z47*2+Z48,2),",")</f>
+        <f t="shared" si="14"/>
         <v>0xF0,</v>
       </c>
       <c r="AA50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA41*128+AA42*64+AA43*32+AA44*16+AA45*8+AA46*4+AA47*2+AA48,2),",")</f>
+        <f t="shared" si="14"/>
         <v>0xA0,</v>
       </c>
       <c r="AB50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB41*128+AB42*64+AB43*32+AB44*16+AB45*8+AB46*4+AB47*2+AB48,2),",")</f>
+        <f t="shared" si="14"/>
         <v>0x50,</v>
       </c>
       <c r="AC50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC41*128+AC42*64+AC43*32+AC44*16+AC45*8+AC46*4+AC47*2+AC48,2),",")</f>
+        <f t="shared" si="14"/>
         <v>0x00,</v>
       </c>
       <c r="AF50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF41*128+AF42*64+AF43*32+AF44*16+AF45*8+AF46*4+AF47*2+AF48,2),",")</f>
+        <f t="shared" ref="AF50:AM50" si="15">CONCATENATE("0x",DEC2HEX(AF41*128+AF42*64+AF43*32+AF44*16+AF45*8+AF46*4+AF47*2+AF48,2),",")</f>
         <v>0xD0,</v>
       </c>
       <c r="AG50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG41*128+AG42*64+AG43*32+AG44*16+AG45*8+AG46*4+AG47*2+AG48,2),",")</f>
+        <f t="shared" si="15"/>
         <v>0x90,</v>
       </c>
       <c r="AH50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH41*128+AH42*64+AH43*32+AH44*16+AH45*8+AH46*4+AH47*2+AH48,2),",")</f>
+        <f t="shared" si="15"/>
         <v>0xB0,</v>
       </c>
       <c r="AI50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI41*128+AI42*64+AI43*32+AI44*16+AI45*8+AI46*4+AI47*2+AI48,2),",")</f>
+        <f t="shared" si="15"/>
         <v>0x00,</v>
       </c>
       <c r="AJ50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ41*128+AJ42*64+AJ43*32+AJ44*16+AJ45*8+AJ46*4+AJ47*2+AJ48,2),",")</f>
+        <f t="shared" si="15"/>
         <v>0x80,</v>
       </c>
       <c r="AK50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK41*128+AK42*64+AK43*32+AK44*16+AK45*8+AK46*4+AK47*2+AK48,2),",")</f>
+        <f t="shared" si="15"/>
         <v>0xF0,</v>
       </c>
       <c r="AL50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL41*128+AL42*64+AL43*32+AL44*16+AL45*8+AL46*4+AL47*2+AL48,2),",")</f>
+        <f t="shared" si="15"/>
         <v>0x80,</v>
       </c>
       <c r="AM50" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM41*128+AM42*64+AM43*32+AM44*16+AM45*8+AM46*4+AM47*2+AM48,2),",")</f>
+        <f t="shared" si="15"/>
         <v>0x00,</v>
       </c>
     </row>
@@ -21168,131 +21082,131 @@
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(B54*128+B55*64+B56*32+B57*16+B58*8+B59*4+B60*2+B61,2),",")</f>
+        <f t="shared" ref="B63:I63" si="16">CONCATENATE("0x",DEC2HEX(B54*128+B55*64+B56*32+B57*16+B58*8+B59*4+B60*2+B61,2),",")</f>
         <v>0xF0,</v>
       </c>
       <c r="C63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C54*128+C55*64+C56*32+C57*16+C58*8+C59*4+C60*2+C61,2),",")</f>
+        <f t="shared" si="16"/>
         <v>0x10,</v>
       </c>
       <c r="D63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D54*128+D55*64+D56*32+D57*16+D58*8+D59*4+D60*2+D61,2),",")</f>
+        <f t="shared" si="16"/>
         <v>0xF0,</v>
       </c>
       <c r="E63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E54*128+E55*64+E56*32+E57*16+E58*8+E59*4+E60*2+E61,2),",")</f>
+        <f t="shared" si="16"/>
         <v>0x00,</v>
       </c>
       <c r="F63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F54*128+F55*64+F56*32+F57*16+F58*8+F59*4+F60*2+F61,2),",")</f>
+        <f t="shared" si="16"/>
         <v>0xE0,</v>
       </c>
       <c r="G63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(G54*128+G55*64+G56*32+G57*16+G58*8+G59*4+G60*2+G61,2),",")</f>
+        <f t="shared" si="16"/>
         <v>0x10,</v>
       </c>
       <c r="H63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(H54*128+H55*64+H56*32+H57*16+H58*8+H59*4+H60*2+H61,2),",")</f>
+        <f t="shared" si="16"/>
         <v>0xE0,</v>
       </c>
       <c r="I63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(I54*128+I55*64+I56*32+I57*16+I58*8+I59*4+I60*2+I61,2),",")</f>
+        <f t="shared" si="16"/>
         <v>0x00,</v>
       </c>
       <c r="L63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(L54*128+L55*64+L56*32+L57*16+L58*8+L59*4+L60*2+L61,2),",")</f>
+        <f t="shared" ref="L63:S63" si="17">CONCATENATE("0x",DEC2HEX(L54*128+L55*64+L56*32+L57*16+L58*8+L59*4+L60*2+L61,2),",")</f>
         <v>0xF0,</v>
       </c>
       <c r="M63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(M54*128+M55*64+M56*32+M57*16+M58*8+M59*4+M60*2+M61,2),",")</f>
+        <f t="shared" si="17"/>
         <v>0x10,</v>
       </c>
       <c r="N63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(N54*128+N55*64+N56*32+N57*16+N58*8+N59*4+N60*2+N61,2),",")</f>
+        <f t="shared" si="17"/>
         <v>0x30,</v>
       </c>
       <c r="O63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(O54*128+O55*64+O56*32+O57*16+O58*8+O59*4+O60*2+O61,2),",")</f>
+        <f t="shared" si="17"/>
         <v>0xF0,</v>
       </c>
       <c r="P63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(P54*128+P55*64+P56*32+P57*16+P58*8+P59*4+P60*2+P61,2),",")</f>
+        <f t="shared" si="17"/>
         <v>0x90,</v>
       </c>
       <c r="Q63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Q54*128+Q55*64+Q56*32+Q57*16+Q58*8+Q59*4+Q60*2+Q61,2),",")</f>
+        <f t="shared" si="17"/>
         <v>0x60,</v>
       </c>
       <c r="R63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(R54*128+R55*64+R56*32+R57*16+R58*8+R59*4+R60*2+R61,2),",")</f>
+        <f t="shared" si="17"/>
         <v>0x90,</v>
       </c>
       <c r="S63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(S54*128+S55*64+S56*32+S57*16+S58*8+S59*4+S60*2+S61,2),",")</f>
+        <f t="shared" si="17"/>
         <v>0x00,</v>
       </c>
       <c r="V63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(V54*128+V55*64+V56*32+V57*16+V58*8+V59*4+V60*2+V61,2),",")</f>
+        <f t="shared" ref="V63:AC63" si="18">CONCATENATE("0x",DEC2HEX(V54*128+V55*64+V56*32+V57*16+V58*8+V59*4+V60*2+V61,2),",")</f>
         <v>0xC0,</v>
       </c>
       <c r="W63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(W54*128+W55*64+W56*32+W57*16+W58*8+W59*4+W60*2+W61,2),",")</f>
+        <f t="shared" si="18"/>
         <v>0x30,</v>
       </c>
       <c r="X63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(X54*128+X55*64+X56*32+X57*16+X58*8+X59*4+X60*2+X61,2),",")</f>
+        <f t="shared" si="18"/>
         <v>0xC0,</v>
       </c>
       <c r="Y63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Y54*128+Y55*64+Y56*32+Y57*16+Y58*8+Y59*4+Y60*2+Y61,2),",")</f>
+        <f t="shared" si="18"/>
         <v>0x00,</v>
       </c>
       <c r="Z63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(Z54*128+Z55*64+Z56*32+Z57*16+Z58*8+Z59*4+Z60*2+Z61,2),",")</f>
+        <f t="shared" si="18"/>
         <v>0xB0,</v>
       </c>
       <c r="AA63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AA54*128+AA55*64+AA56*32+AA57*16+AA58*8+AA59*4+AA60*2+AA61,2),",")</f>
+        <f t="shared" si="18"/>
         <v>0x90,</v>
       </c>
       <c r="AB63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AB54*128+AB55*64+AB56*32+AB57*16+AB58*8+AB59*4+AB60*2+AB61,2),",")</f>
+        <f t="shared" si="18"/>
         <v>0xD0,</v>
       </c>
       <c r="AC63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AC54*128+AC55*64+AC56*32+AC57*16+AC58*8+AC59*4+AC60*2+AC61,2),",")</f>
+        <f t="shared" si="18"/>
         <v>0x00,</v>
       </c>
       <c r="AF63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AF54*128+AF55*64+AF56*32+AF57*16+AF58*8+AF59*4+AF60*2+AF61,2),",")</f>
+        <f t="shared" ref="AF63:AM63" si="19">CONCATENATE("0x",DEC2HEX(AF54*128+AF55*64+AF56*32+AF57*16+AF58*8+AF59*4+AF60*2+AF61,2),",")</f>
         <v>0x00,</v>
       </c>
       <c r="AG63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AG54*128+AG55*64+AG56*32+AG57*16+AG58*8+AG59*4+AG60*2+AG61,2),",")</f>
+        <f t="shared" si="19"/>
         <v>0x00,</v>
       </c>
       <c r="AH63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AH54*128+AH55*64+AH56*32+AH57*16+AH58*8+AH59*4+AH60*2+AH61,2),",")</f>
+        <f t="shared" si="19"/>
         <v>0x00,</v>
       </c>
       <c r="AI63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AI54*128+AI55*64+AI56*32+AI57*16+AI58*8+AI59*4+AI60*2+AI61,2),",")</f>
+        <f t="shared" si="19"/>
         <v>0x00,</v>
       </c>
       <c r="AJ63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AJ54*128+AJ55*64+AJ56*32+AJ57*16+AJ58*8+AJ59*4+AJ60*2+AJ61,2),",")</f>
+        <f t="shared" si="19"/>
         <v>0x00,</v>
       </c>
       <c r="AK63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AK54*128+AK55*64+AK56*32+AK57*16+AK58*8+AK59*4+AK60*2+AK61,2),",")</f>
+        <f t="shared" si="19"/>
         <v>0x00,</v>
       </c>
       <c r="AL63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AL54*128+AL55*64+AL56*32+AL57*16+AL58*8+AL59*4+AL60*2+AL61,2),",")</f>
+        <f t="shared" si="19"/>
         <v>0x00,</v>
       </c>
       <c r="AM63" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(AM54*128+AM55*64+AM56*32+AM57*16+AM58*8+AM59*4+AM60*2+AM61,2),",")</f>
+        <f t="shared" si="19"/>
         <v>0x00,</v>
       </c>
     </row>
